--- a/test18-colorspace/dssim.xlsx
+++ b/test18-colorspace/dssim.xlsx
@@ -6188,9 +6188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="T123" sqref="T123"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Y123" sqref="Y123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6960,7 +6960,7 @@
         <v>1475</v>
       </c>
       <c r="J9" s="2">
-        <v>0.19019</v>
+        <v>0.190189</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>1355</v>
@@ -6978,7 +6978,7 @@
         <v>1115</v>
       </c>
       <c r="P9" s="2">
-        <v>0.19122400000000001</v>
+        <v>0.191223</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>995</v>
@@ -6996,7 +6996,7 @@
         <v>755</v>
       </c>
       <c r="V9" s="2">
-        <v>0.19122400000000001</v>
+        <v>0.191223</v>
       </c>
       <c r="W9" s="12" t="s">
         <v>635</v>
@@ -7014,7 +7014,7 @@
         <v>395</v>
       </c>
       <c r="AB9" s="2">
-        <v>0.19122400000000001</v>
+        <v>0.191223</v>
       </c>
       <c r="AC9" s="12" t="s">
         <v>275</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="10" spans="2:31">
       <c r="B10" s="2">
-        <v>5.4799999999999998E-4</v>
+        <v>5.4900000000000001E-4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>36</v>
@@ -7040,13 +7040,13 @@
         <v>1716</v>
       </c>
       <c r="F10" s="2">
-        <v>5.4799999999999998E-4</v>
+        <v>5.4900000000000001E-4</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>1596</v>
       </c>
       <c r="H10" s="2">
-        <v>5.4799999999999998E-4</v>
+        <v>5.4900000000000001E-4</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>1476</v>
@@ -7058,7 +7058,7 @@
         <v>1356</v>
       </c>
       <c r="L10" s="2">
-        <v>5.4799999999999998E-4</v>
+        <v>5.4900000000000001E-4</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>1236</v>
@@ -7506,7 +7506,7 @@
         <v>1601</v>
       </c>
       <c r="H15" s="6">
-        <v>9.391E-3</v>
+        <v>9.3919999999999993E-3</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>1481</v>
@@ -7518,7 +7518,7 @@
         <v>1361</v>
       </c>
       <c r="L15" s="6">
-        <v>9.391E-3</v>
+        <v>9.3919999999999993E-3</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>1241</v>
@@ -7530,7 +7530,7 @@
         <v>1121</v>
       </c>
       <c r="P15" s="6">
-        <v>9.3869999999999995E-3</v>
+        <v>9.3880000000000005E-3</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>1001</v>
@@ -7548,7 +7548,7 @@
         <v>761</v>
       </c>
       <c r="V15" s="6">
-        <v>9.3869999999999995E-3</v>
+        <v>9.3880000000000005E-3</v>
       </c>
       <c r="W15" s="11" t="s">
         <v>641</v>
@@ -7566,7 +7566,7 @@
         <v>401</v>
       </c>
       <c r="AB15" s="6">
-        <v>9.3869999999999995E-3</v>
+        <v>9.3880000000000005E-3</v>
       </c>
       <c r="AC15" s="11" t="s">
         <v>281</v>
@@ -7580,91 +7580,91 @@
     </row>
     <row r="16" spans="2:31">
       <c r="B16" s="6">
-        <v>1.1625999999999999E-2</v>
+        <v>1.1627999999999999E-2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="6">
-        <v>1.1627999999999999E-2</v>
+        <v>1.1629E-2</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>1722</v>
       </c>
       <c r="F16" s="6">
-        <v>1.1625999999999999E-2</v>
+        <v>1.1627999999999999E-2</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>1602</v>
       </c>
       <c r="H16" s="6">
-        <v>1.1624000000000001E-2</v>
+        <v>1.1625999999999999E-2</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>1482</v>
       </c>
       <c r="J16" s="6">
-        <v>1.1627999999999999E-2</v>
+        <v>1.163E-2</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>1362</v>
       </c>
       <c r="L16" s="6">
-        <v>1.1624000000000001E-2</v>
+        <v>1.1625999999999999E-2</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>1242</v>
       </c>
       <c r="N16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>1122</v>
       </c>
       <c r="P16" s="6">
-        <v>1.1606999999999999E-2</v>
+        <v>1.1609E-2</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>1002</v>
       </c>
       <c r="R16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>882</v>
       </c>
       <c r="T16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>762</v>
       </c>
       <c r="V16" s="6">
-        <v>1.1606999999999999E-2</v>
+        <v>1.1609E-2</v>
       </c>
       <c r="W16" s="11" t="s">
         <v>642</v>
       </c>
       <c r="X16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>522</v>
       </c>
       <c r="Z16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>402</v>
       </c>
       <c r="AB16" s="6">
-        <v>1.1606999999999999E-2</v>
+        <v>1.1609E-2</v>
       </c>
       <c r="AC16" s="11" t="s">
         <v>282</v>
       </c>
       <c r="AD16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="AE16" s="11" t="s">
         <v>162</v>
@@ -7764,91 +7764,91 @@
     </row>
     <row r="18" spans="2:31">
       <c r="B18" s="2">
-        <v>4.2595000000000001E-2</v>
+        <v>4.2731999999999999E-2</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2">
-        <v>0.104258</v>
+        <v>0.103871</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>1724</v>
       </c>
       <c r="F18" s="2">
-        <v>4.2595000000000001E-2</v>
+        <v>4.2731999999999999E-2</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>1604</v>
       </c>
       <c r="H18" s="2">
-        <v>4.2599999999999999E-2</v>
+        <v>4.2736999999999997E-2</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>1484</v>
       </c>
       <c r="J18" s="2">
-        <v>0.104286</v>
+        <v>0.10389900000000001</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>1364</v>
       </c>
       <c r="L18" s="2">
-        <v>4.2599999999999999E-2</v>
+        <v>4.2736999999999997E-2</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>1244</v>
       </c>
       <c r="N18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>1124</v>
       </c>
       <c r="P18" s="2">
-        <v>0.10118000000000001</v>
+        <v>0.10090499999999999</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>1004</v>
       </c>
       <c r="R18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>884</v>
       </c>
       <c r="T18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>764</v>
       </c>
       <c r="V18" s="2">
-        <v>0.10118000000000001</v>
+        <v>0.10090499999999999</v>
       </c>
       <c r="W18" s="12" t="s">
         <v>644</v>
       </c>
       <c r="X18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>524</v>
       </c>
       <c r="Z18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AA18" s="12" t="s">
         <v>404</v>
       </c>
       <c r="AB18" s="2">
-        <v>0.10118000000000001</v>
+        <v>0.10090499999999999</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>284</v>
       </c>
       <c r="AD18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>164</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="19" spans="2:31">
       <c r="B19" s="2">
-        <v>1.1789999999999999E-3</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>45</v>
@@ -7868,13 +7868,13 @@
         <v>1725</v>
       </c>
       <c r="F19" s="2">
-        <v>1.1789999999999999E-3</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="H19" s="2">
-        <v>1.1800000000000001E-3</v>
+        <v>1.181E-3</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>1485</v>
@@ -7886,7 +7886,7 @@
         <v>1365</v>
       </c>
       <c r="L19" s="2">
-        <v>1.1800000000000001E-3</v>
+        <v>1.181E-3</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>1245</v>
@@ -7898,7 +7898,7 @@
         <v>1125</v>
       </c>
       <c r="P19" s="2">
-        <v>1.8558999999999999E-2</v>
+        <v>1.8558000000000002E-2</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>1005</v>
@@ -7916,7 +7916,7 @@
         <v>765</v>
       </c>
       <c r="V19" s="2">
-        <v>1.8558999999999999E-2</v>
+        <v>1.8558000000000002E-2</v>
       </c>
       <c r="W19" s="12" t="s">
         <v>645</v>
@@ -7934,7 +7934,7 @@
         <v>405</v>
       </c>
       <c r="AB19" s="2">
-        <v>1.8558999999999999E-2</v>
+        <v>1.8558000000000002E-2</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>285</v>
@@ -7948,43 +7948,43 @@
     </row>
     <row r="20" spans="2:31">
       <c r="B20" s="2">
-        <v>6.3249999999999999E-3</v>
+        <v>6.326E-3</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="2">
-        <v>0.106445</v>
+        <v>0.106444</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>1726</v>
       </c>
       <c r="F20" s="2">
-        <v>6.3249999999999999E-3</v>
+        <v>6.326E-3</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>1606</v>
       </c>
       <c r="H20" s="2">
-        <v>6.3379999999999999E-3</v>
+        <v>6.339E-3</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>1486</v>
       </c>
       <c r="J20" s="2">
-        <v>0.10648000000000001</v>
+        <v>0.106478</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>1366</v>
       </c>
       <c r="L20" s="2">
-        <v>6.3379999999999999E-3</v>
+        <v>6.339E-3</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>1246</v>
       </c>
       <c r="N20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>1126</v>
@@ -7996,13 +7996,13 @@
         <v>1006</v>
       </c>
       <c r="R20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="S20" s="12" t="s">
         <v>886</v>
       </c>
       <c r="T20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>766</v>
@@ -8014,13 +8014,13 @@
         <v>646</v>
       </c>
       <c r="X20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>526</v>
       </c>
       <c r="Z20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AA20" s="12" t="s">
         <v>406</v>
@@ -8032,7 +8032,7 @@
         <v>286</v>
       </c>
       <c r="AD20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="AE20" s="12" t="s">
         <v>166</v>
@@ -8040,91 +8040,91 @@
     </row>
     <row r="21" spans="2:31">
       <c r="B21" s="6">
-        <v>1.859E-3</v>
+        <v>1.861E-3</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="6">
-        <v>1.859E-3</v>
+        <v>1.861E-3</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>1727</v>
       </c>
       <c r="F21" s="6">
-        <v>1.859E-3</v>
+        <v>1.861E-3</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>1607</v>
       </c>
       <c r="H21" s="6">
-        <v>1.9469999999999999E-3</v>
+        <v>1.949E-3</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>1487</v>
       </c>
       <c r="J21" s="6">
-        <v>1.9469999999999999E-3</v>
+        <v>1.949E-3</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>1367</v>
       </c>
       <c r="L21" s="6">
-        <v>1.9469999999999999E-3</v>
+        <v>1.949E-3</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>1247</v>
       </c>
       <c r="N21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>1127</v>
       </c>
       <c r="P21" s="6">
-        <v>1.7769999999999999E-3</v>
+        <v>1.779E-3</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>1007</v>
       </c>
       <c r="R21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>887</v>
       </c>
       <c r="T21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="U21" s="11" t="s">
         <v>767</v>
       </c>
       <c r="V21" s="6">
-        <v>1.7769999999999999E-3</v>
+        <v>1.779E-3</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>647</v>
       </c>
       <c r="X21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="Y21" s="11" t="s">
         <v>527</v>
       </c>
       <c r="Z21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AA21" s="11" t="s">
         <v>407</v>
       </c>
       <c r="AB21" s="6">
-        <v>1.7769999999999999E-3</v>
+        <v>1.779E-3</v>
       </c>
       <c r="AC21" s="11" t="s">
         <v>287</v>
       </c>
       <c r="AD21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="AE21" s="11" t="s">
         <v>167</v>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="22" spans="2:31">
       <c r="B22" s="2">
-        <v>8.9029999999999995E-3</v>
+        <v>8.9020000000000002E-3</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>48</v>
@@ -8144,25 +8144,25 @@
         <v>1728</v>
       </c>
       <c r="F22" s="2">
-        <v>8.9029999999999995E-3</v>
+        <v>8.9020000000000002E-3</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>1608</v>
       </c>
       <c r="H22" s="2">
-        <v>8.9110000000000005E-3</v>
+        <v>8.9099999999999995E-3</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>1488</v>
       </c>
       <c r="J22" s="2">
-        <v>0.14514299999999999</v>
+        <v>0.145144</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>1368</v>
       </c>
       <c r="L22" s="2">
-        <v>8.9110000000000005E-3</v>
+        <v>8.9099999999999995E-3</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>1248</v>
@@ -8260,55 +8260,55 @@
         <v>1249</v>
       </c>
       <c r="N23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>1129</v>
       </c>
       <c r="P23" s="6">
-        <v>5.8389999999999996E-3</v>
+        <v>5.842E-3</v>
       </c>
       <c r="Q23" s="11" t="s">
         <v>1009</v>
       </c>
       <c r="R23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>889</v>
       </c>
       <c r="T23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>769</v>
       </c>
       <c r="V23" s="6">
-        <v>5.8389999999999996E-3</v>
+        <v>5.842E-3</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>649</v>
       </c>
       <c r="X23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="Y23" s="11" t="s">
         <v>529</v>
       </c>
       <c r="Z23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AA23" s="11" t="s">
         <v>409</v>
       </c>
       <c r="AB23" s="6">
-        <v>5.8389999999999996E-3</v>
+        <v>5.842E-3</v>
       </c>
       <c r="AC23" s="11" t="s">
         <v>289</v>
       </c>
       <c r="AD23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="AE23" s="11" t="s">
         <v>169</v>
@@ -8316,91 +8316,91 @@
     </row>
     <row r="24" spans="2:31">
       <c r="B24" s="6">
-        <v>2.9039999999999999E-3</v>
+        <v>2.9069999999999999E-3</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="6">
-        <v>2.9069999999999999E-3</v>
+        <v>2.911E-3</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>1730</v>
       </c>
       <c r="F24" s="6">
-        <v>2.9039999999999999E-3</v>
+        <v>2.9069999999999999E-3</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>1610</v>
       </c>
       <c r="H24" s="6">
-        <v>2.9030000000000002E-3</v>
+        <v>2.9060000000000002E-3</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>1490</v>
       </c>
       <c r="J24" s="6">
-        <v>2.908E-3</v>
+        <v>2.911E-3</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>1370</v>
       </c>
       <c r="L24" s="6">
-        <v>2.9030000000000002E-3</v>
+        <v>2.9060000000000002E-3</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>1250</v>
       </c>
       <c r="N24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>1130</v>
       </c>
       <c r="P24" s="6">
-        <v>2.895E-3</v>
+        <v>2.8960000000000001E-3</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>1010</v>
       </c>
       <c r="R24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>890</v>
       </c>
       <c r="T24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>770</v>
       </c>
       <c r="V24" s="6">
-        <v>2.895E-3</v>
+        <v>2.8960000000000001E-3</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>650</v>
       </c>
       <c r="X24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>530</v>
       </c>
       <c r="Z24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AA24" s="11" t="s">
         <v>410</v>
       </c>
       <c r="AB24" s="6">
-        <v>2.895E-3</v>
+        <v>2.8960000000000001E-3</v>
       </c>
       <c r="AC24" s="11" t="s">
         <v>290</v>
       </c>
       <c r="AD24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="AE24" s="11" t="s">
         <v>170</v>
@@ -8500,91 +8500,91 @@
     </row>
     <row r="26" spans="2:31">
       <c r="B26" s="6">
-        <v>3.9810000000000002E-3</v>
+        <v>3.9760000000000004E-3</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="6">
-        <v>3.9810000000000002E-3</v>
+        <v>3.9760000000000004E-3</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>1732</v>
       </c>
       <c r="F26" s="6">
-        <v>3.9810000000000002E-3</v>
+        <v>3.9760000000000004E-3</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>1612</v>
       </c>
       <c r="H26" s="6">
-        <v>3.9849999999999998E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>1492</v>
       </c>
       <c r="J26" s="6">
-        <v>3.9849999999999998E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>1372</v>
       </c>
       <c r="L26" s="6">
-        <v>3.9849999999999998E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>1252</v>
       </c>
       <c r="N26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>1132</v>
       </c>
       <c r="P26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>1012</v>
       </c>
       <c r="R26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>892</v>
       </c>
       <c r="T26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>772</v>
       </c>
       <c r="V26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="W26" s="11" t="s">
         <v>652</v>
       </c>
       <c r="X26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="Y26" s="11" t="s">
         <v>532</v>
       </c>
       <c r="Z26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AA26" s="11" t="s">
         <v>412</v>
       </c>
       <c r="AB26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AC26" s="11" t="s">
         <v>292</v>
       </c>
       <c r="AD26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="AE26" s="11" t="s">
         <v>172</v>
@@ -8598,7 +8598,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="2">
-        <v>5.934E-3</v>
+        <v>5.9329999999999999E-3</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>1733</v>
@@ -8610,25 +8610,25 @@
         <v>1613</v>
       </c>
       <c r="H27" s="2">
-        <v>1.2570000000000001E-3</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>1493</v>
       </c>
       <c r="J27" s="2">
-        <v>5.9379999999999997E-3</v>
+        <v>5.9449999999999998E-3</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>1373</v>
       </c>
       <c r="L27" s="2">
-        <v>1.2570000000000001E-3</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>1253</v>
       </c>
       <c r="N27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>1133</v>
@@ -8640,13 +8640,13 @@
         <v>1013</v>
       </c>
       <c r="R27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="S27" s="12" t="s">
         <v>893</v>
       </c>
       <c r="T27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="U27" s="12" t="s">
         <v>773</v>
@@ -8658,13 +8658,13 @@
         <v>653</v>
       </c>
       <c r="X27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="Y27" s="12" t="s">
         <v>533</v>
       </c>
       <c r="Z27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="AA27" s="12" t="s">
         <v>413</v>
@@ -8676,7 +8676,7 @@
         <v>293</v>
       </c>
       <c r="AD27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="AE27" s="12" t="s">
         <v>173</v>
@@ -8702,73 +8702,73 @@
         <v>1614</v>
       </c>
       <c r="H28" s="2">
-        <v>3.075E-3</v>
+        <v>3.0790000000000001E-3</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>1494</v>
       </c>
       <c r="J28" s="2">
-        <v>1.9028E-2</v>
+        <v>1.9037999999999999E-2</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>1374</v>
       </c>
       <c r="L28" s="2">
-        <v>3.075E-3</v>
+        <v>3.0790000000000001E-3</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>1254</v>
       </c>
       <c r="N28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>1134</v>
       </c>
       <c r="P28" s="2">
-        <v>1.9064999999999999E-2</v>
+        <v>1.9126000000000001E-2</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>1014</v>
       </c>
       <c r="R28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>894</v>
       </c>
       <c r="T28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="U28" s="12" t="s">
         <v>774</v>
       </c>
       <c r="V28" s="2">
-        <v>1.9064999999999999E-2</v>
+        <v>1.9126000000000001E-2</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>654</v>
       </c>
       <c r="X28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="Y28" s="12" t="s">
         <v>534</v>
       </c>
       <c r="Z28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AA28" s="12" t="s">
         <v>414</v>
       </c>
       <c r="AB28" s="2">
-        <v>1.9064999999999999E-2</v>
+        <v>1.9126000000000001E-2</v>
       </c>
       <c r="AC28" s="12" t="s">
         <v>294</v>
       </c>
       <c r="AD28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="AE28" s="12" t="s">
         <v>174</v>
@@ -8782,7 +8782,7 @@
         <v>55</v>
       </c>
       <c r="D29" s="2">
-        <v>3.1751000000000001E-2</v>
+        <v>3.175E-2</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>1735</v>
@@ -8794,73 +8794,73 @@
         <v>1615</v>
       </c>
       <c r="H29" s="2">
-        <v>6.0610000000000004E-3</v>
+        <v>6.0689999999999997E-3</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>1495</v>
       </c>
       <c r="J29" s="2">
-        <v>3.1315000000000003E-2</v>
+        <v>3.1296999999999998E-2</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>1375</v>
       </c>
       <c r="L29" s="2">
-        <v>6.0610000000000004E-3</v>
+        <v>6.0689999999999997E-3</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>1255</v>
       </c>
       <c r="N29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>1135</v>
       </c>
       <c r="P29" s="2">
-        <v>3.1691999999999998E-2</v>
+        <v>3.1597E-2</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>1015</v>
       </c>
       <c r="R29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="S29" s="12" t="s">
         <v>895</v>
       </c>
       <c r="T29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="U29" s="12" t="s">
         <v>775</v>
       </c>
       <c r="V29" s="2">
-        <v>3.1691999999999998E-2</v>
+        <v>3.1597E-2</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>655</v>
       </c>
       <c r="X29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="Y29" s="12" t="s">
         <v>535</v>
       </c>
       <c r="Z29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="AA29" s="12" t="s">
         <v>415</v>
       </c>
       <c r="AB29" s="2">
-        <v>3.1691999999999998E-2</v>
+        <v>3.1597E-2</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>295</v>
       </c>
       <c r="AD29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="AE29" s="12" t="s">
         <v>175</v>
@@ -8868,91 +8868,91 @@
     </row>
     <row r="30" spans="2:31">
       <c r="B30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="2">
-        <v>1.9186000000000002E-2</v>
+        <v>1.9189000000000001E-2</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>1736</v>
       </c>
       <c r="F30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>1616</v>
       </c>
       <c r="H30" s="2">
-        <v>4.5000000000000003E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>1496</v>
       </c>
       <c r="J30" s="2">
-        <v>1.9188E-2</v>
+        <v>1.9191E-2</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>1376</v>
       </c>
       <c r="L30" s="2">
-        <v>4.5000000000000003E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>1256</v>
       </c>
       <c r="N30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="O30" s="12" t="s">
         <v>1136</v>
       </c>
       <c r="P30" s="2">
-        <v>1.9189999999999999E-2</v>
+        <v>1.9193000000000002E-2</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>1016</v>
       </c>
       <c r="R30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="S30" s="12" t="s">
         <v>896</v>
       </c>
       <c r="T30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="U30" s="12" t="s">
         <v>776</v>
       </c>
       <c r="V30" s="2">
-        <v>1.9189999999999999E-2</v>
+        <v>1.9193000000000002E-2</v>
       </c>
       <c r="W30" s="12" t="s">
         <v>656</v>
       </c>
       <c r="X30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>536</v>
       </c>
       <c r="Z30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="AA30" s="12" t="s">
         <v>416</v>
       </c>
       <c r="AB30" s="2">
-        <v>1.9189999999999999E-2</v>
+        <v>1.9193000000000002E-2</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>296</v>
       </c>
       <c r="AD30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="AE30" s="12" t="s">
         <v>176</v>
@@ -9070,7 +9070,7 @@
         <v>1618</v>
       </c>
       <c r="H32" s="2">
-        <v>1.292E-3</v>
+        <v>1.291E-3</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>1498</v>
@@ -9082,61 +9082,61 @@
         <v>1378</v>
       </c>
       <c r="L32" s="2">
-        <v>1.292E-3</v>
+        <v>1.291E-3</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>1258</v>
       </c>
       <c r="N32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="O32" s="12" t="s">
         <v>1138</v>
       </c>
       <c r="P32" s="2">
-        <v>4.7570000000000001E-2</v>
+        <v>4.7569E-2</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>1018</v>
       </c>
       <c r="R32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="S32" s="12" t="s">
         <v>898</v>
       </c>
       <c r="T32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="U32" s="12" t="s">
         <v>778</v>
       </c>
       <c r="V32" s="2">
-        <v>4.7570000000000001E-2</v>
+        <v>4.7569E-2</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>658</v>
       </c>
       <c r="X32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>538</v>
       </c>
       <c r="Z32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AA32" s="12" t="s">
         <v>418</v>
       </c>
       <c r="AB32" s="2">
-        <v>4.7570000000000001E-2</v>
+        <v>4.7569E-2</v>
       </c>
       <c r="AC32" s="12" t="s">
         <v>298</v>
       </c>
       <c r="AD32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="AE32" s="12" t="s">
         <v>178</v>
@@ -9328,91 +9328,91 @@
     </row>
     <row r="35" spans="2:31">
       <c r="B35" s="2">
-        <v>2.0022999999999999E-2</v>
+        <v>1.9955000000000001E-2</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="2">
-        <v>9.8010000000000007E-3</v>
+        <v>9.8209999999999999E-3</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>1741</v>
       </c>
       <c r="F35" s="2">
-        <v>2.0022999999999999E-2</v>
+        <v>1.9955000000000001E-2</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>1621</v>
       </c>
       <c r="H35" s="2">
-        <v>2.0022999999999999E-2</v>
+        <v>1.9955000000000001E-2</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>1501</v>
       </c>
       <c r="J35" s="2">
-        <v>9.8010000000000007E-3</v>
+        <v>9.8200000000000006E-3</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>1381</v>
       </c>
       <c r="L35" s="2">
-        <v>2.0022999999999999E-2</v>
+        <v>1.9955000000000001E-2</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>1261</v>
       </c>
       <c r="N35" s="2">
-        <v>8.5780000000000006E-3</v>
+        <v>8.6899999999999998E-3</v>
       </c>
       <c r="O35" s="12" t="s">
         <v>1141</v>
       </c>
       <c r="P35" s="2">
-        <v>8.5780000000000006E-3</v>
+        <v>8.6899999999999998E-3</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>1021</v>
       </c>
       <c r="R35" s="2">
-        <v>2.7712000000000001E-2</v>
+        <v>2.6932999999999999E-2</v>
       </c>
       <c r="S35" s="12" t="s">
         <v>901</v>
       </c>
       <c r="T35" s="2">
-        <v>2.0579E-2</v>
+        <v>2.0504999999999999E-2</v>
       </c>
       <c r="U35" s="12" t="s">
         <v>781</v>
       </c>
       <c r="V35" s="2">
-        <v>9.4710000000000003E-3</v>
+        <v>9.4940000000000007E-3</v>
       </c>
       <c r="W35" s="12" t="s">
         <v>661</v>
       </c>
       <c r="X35" s="2">
-        <v>2.0579E-2</v>
+        <v>2.0504999999999999E-2</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>541</v>
       </c>
       <c r="Z35" s="2">
-        <v>2.0579E-2</v>
+        <v>2.0504999999999999E-2</v>
       </c>
       <c r="AA35" s="12" t="s">
         <v>421</v>
       </c>
       <c r="AB35" s="2">
-        <v>9.4710000000000003E-3</v>
+        <v>9.4940000000000007E-3</v>
       </c>
       <c r="AC35" s="12" t="s">
         <v>301</v>
       </c>
       <c r="AD35" s="2">
-        <v>2.0579E-2</v>
+        <v>2.0504999999999999E-2</v>
       </c>
       <c r="AE35" s="12" t="s">
         <v>181</v>
@@ -9420,37 +9420,37 @@
     </row>
     <row r="36" spans="2:31">
       <c r="B36" s="2">
-        <v>1.874E-3</v>
+        <v>1.8749999999999999E-3</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="2">
-        <v>2.9364000000000001E-2</v>
+        <v>2.9364999999999999E-2</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>1742</v>
       </c>
       <c r="F36" s="2">
-        <v>1.874E-3</v>
+        <v>1.8749999999999999E-3</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>1622</v>
       </c>
       <c r="H36" s="2">
-        <v>1.874E-3</v>
+        <v>1.8749999999999999E-3</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>1502</v>
       </c>
       <c r="J36" s="2">
-        <v>2.9364000000000001E-2</v>
+        <v>2.9364999999999999E-2</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>1382</v>
       </c>
       <c r="L36" s="2">
-        <v>1.874E-3</v>
+        <v>1.8749999999999999E-3</v>
       </c>
       <c r="M36" s="12" t="s">
         <v>1262</v>
@@ -9518,7 +9518,7 @@
         <v>63</v>
       </c>
       <c r="D37" s="2">
-        <v>3.0149999999999999E-3</v>
+        <v>3.0130000000000001E-3</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>1743</v>
@@ -9536,7 +9536,7 @@
         <v>1503</v>
       </c>
       <c r="J37" s="2">
-        <v>3.0149999999999999E-3</v>
+        <v>3.0130000000000001E-3</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>1383</v>
@@ -9554,7 +9554,7 @@
         <v>1143</v>
       </c>
       <c r="P37" s="2">
-        <v>2.787E-3</v>
+        <v>2.7859999999999998E-3</v>
       </c>
       <c r="Q37" s="12" t="s">
         <v>1023</v>
@@ -9572,7 +9572,7 @@
         <v>783</v>
       </c>
       <c r="V37" s="2">
-        <v>2.787E-3</v>
+        <v>2.7859999999999998E-3</v>
       </c>
       <c r="W37" s="12" t="s">
         <v>663</v>
@@ -9590,7 +9590,7 @@
         <v>423</v>
       </c>
       <c r="AB37" s="2">
-        <v>2.787E-3</v>
+        <v>2.7859999999999998E-3</v>
       </c>
       <c r="AC37" s="12" t="s">
         <v>303</v>
@@ -9610,7 +9610,7 @@
         <v>64</v>
       </c>
       <c r="D38" s="2">
-        <v>2.3400000000000001E-3</v>
+        <v>2.3389999999999999E-3</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>1744</v>
@@ -9794,7 +9794,7 @@
         <v>66</v>
       </c>
       <c r="D40" s="2">
-        <v>1.473E-2</v>
+        <v>1.4730999999999999E-2</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>1746</v>
@@ -9824,7 +9824,7 @@
         <v>1266</v>
       </c>
       <c r="N40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="O40" s="12" t="s">
         <v>1146</v>
@@ -9836,13 +9836,13 @@
         <v>1026</v>
       </c>
       <c r="R40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="S40" s="12" t="s">
         <v>906</v>
       </c>
       <c r="T40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="U40" s="12" t="s">
         <v>786</v>
@@ -9854,13 +9854,13 @@
         <v>666</v>
       </c>
       <c r="X40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>546</v>
       </c>
       <c r="Z40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AA40" s="12" t="s">
         <v>426</v>
@@ -9872,7 +9872,7 @@
         <v>306</v>
       </c>
       <c r="AD40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="AE40" s="12" t="s">
         <v>186</v>
@@ -10100,55 +10100,55 @@
         <v>1269</v>
       </c>
       <c r="N43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="O43" s="12" t="s">
         <v>1149</v>
       </c>
       <c r="P43" s="2">
-        <v>4.6020000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="Q43" s="12" t="s">
         <v>1029</v>
       </c>
       <c r="R43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="S43" s="12" t="s">
         <v>909</v>
       </c>
       <c r="T43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="U43" s="12" t="s">
         <v>789</v>
       </c>
       <c r="V43" s="2">
-        <v>4.6020000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="W43" s="12" t="s">
         <v>669</v>
       </c>
       <c r="X43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>549</v>
       </c>
       <c r="Z43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AA43" s="12" t="s">
         <v>429</v>
       </c>
       <c r="AB43" s="2">
-        <v>4.6020000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="AC43" s="12" t="s">
         <v>309</v>
       </c>
       <c r="AD43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="AE43" s="12" t="s">
         <v>189</v>
@@ -10616,37 +10616,37 @@
     </row>
     <row r="49" spans="2:31">
       <c r="B49" s="6">
-        <v>5.1630000000000001E-3</v>
+        <v>5.1650000000000003E-3</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="6">
-        <v>0.242645</v>
+        <v>0.242647</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>1755</v>
       </c>
       <c r="F49" s="6">
-        <v>5.1630000000000001E-3</v>
+        <v>5.1650000000000003E-3</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>1635</v>
       </c>
       <c r="H49" s="6">
-        <v>5.3769999999999998E-3</v>
+        <v>5.378E-3</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>1515</v>
       </c>
       <c r="J49" s="6">
-        <v>0.24172399999999999</v>
+        <v>0.241728</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>1395</v>
       </c>
       <c r="L49" s="6">
-        <v>5.3769999999999998E-3</v>
+        <v>5.378E-3</v>
       </c>
       <c r="M49" s="11" t="s">
         <v>1275</v>
@@ -10658,7 +10658,7 @@
         <v>1155</v>
       </c>
       <c r="P49" s="6">
-        <v>0.243758</v>
+        <v>0.24377099999999999</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>1035</v>
@@ -10676,7 +10676,7 @@
         <v>795</v>
       </c>
       <c r="V49" s="6">
-        <v>0.243758</v>
+        <v>0.24377099999999999</v>
       </c>
       <c r="W49" s="11" t="s">
         <v>675</v>
@@ -10694,7 +10694,7 @@
         <v>435</v>
       </c>
       <c r="AB49" s="6">
-        <v>0.243758</v>
+        <v>0.24377099999999999</v>
       </c>
       <c r="AC49" s="11" t="s">
         <v>315</v>
@@ -10708,91 +10708,91 @@
     </row>
     <row r="50" spans="2:31">
       <c r="B50" s="6">
-        <v>8.8129999999999997E-3</v>
+        <v>8.855E-3</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="6">
-        <v>1.5626000000000001E-2</v>
+        <v>1.5633999999999999E-2</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>1756</v>
       </c>
       <c r="F50" s="6">
-        <v>8.8129999999999997E-3</v>
+        <v>8.855E-3</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>1636</v>
       </c>
       <c r="H50" s="6">
-        <v>8.8129999999999997E-3</v>
+        <v>8.855E-3</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>1516</v>
       </c>
       <c r="J50" s="6">
-        <v>1.5626999999999999E-2</v>
+        <v>1.5635E-2</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>1396</v>
       </c>
       <c r="L50" s="6">
-        <v>8.8129999999999997E-3</v>
+        <v>8.855E-3</v>
       </c>
       <c r="M50" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="N50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>1156</v>
       </c>
       <c r="P50" s="6">
-        <v>1.4652E-2</v>
+        <v>1.4664E-2</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>1036</v>
       </c>
       <c r="R50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>916</v>
       </c>
       <c r="T50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="U50" s="11" t="s">
         <v>796</v>
       </c>
       <c r="V50" s="6">
-        <v>1.4652E-2</v>
+        <v>1.4664E-2</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>676</v>
       </c>
       <c r="X50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="Y50" s="11" t="s">
         <v>556</v>
       </c>
       <c r="Z50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="AA50" s="11" t="s">
         <v>436</v>
       </c>
       <c r="AB50" s="6">
-        <v>1.4652E-2</v>
+        <v>1.4664E-2</v>
       </c>
       <c r="AC50" s="11" t="s">
         <v>316</v>
       </c>
       <c r="AD50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="AE50" s="11" t="s">
         <v>196</v>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="51" spans="2:31">
       <c r="B51" s="6">
-        <v>3.9269999999999999E-3</v>
+        <v>3.9290000000000002E-3</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>77</v>
@@ -10812,13 +10812,13 @@
         <v>1757</v>
       </c>
       <c r="F51" s="6">
-        <v>3.9269999999999999E-3</v>
+        <v>3.9290000000000002E-3</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>1637</v>
       </c>
       <c r="H51" s="6">
-        <v>3.9350000000000001E-3</v>
+        <v>3.9370000000000004E-3</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>1517</v>
@@ -10830,13 +10830,13 @@
         <v>1397</v>
       </c>
       <c r="L51" s="6">
-        <v>3.9350000000000001E-3</v>
+        <v>3.9370000000000004E-3</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>1277</v>
       </c>
       <c r="N51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>1157</v>
@@ -10848,13 +10848,13 @@
         <v>1037</v>
       </c>
       <c r="R51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>917</v>
       </c>
       <c r="T51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="U51" s="11" t="s">
         <v>797</v>
@@ -10866,13 +10866,13 @@
         <v>677</v>
       </c>
       <c r="X51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="Y51" s="11" t="s">
         <v>557</v>
       </c>
       <c r="Z51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="AA51" s="11" t="s">
         <v>437</v>
@@ -10884,7 +10884,7 @@
         <v>317</v>
       </c>
       <c r="AD51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="AE51" s="11" t="s">
         <v>197</v>
@@ -11168,91 +11168,91 @@
     </row>
     <row r="55" spans="2:31">
       <c r="B55" s="6">
-        <v>6.9439999999999997E-3</v>
+        <v>6.9430000000000004E-3</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D55" s="6">
-        <v>6.9439999999999997E-3</v>
+        <v>6.9430000000000004E-3</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>1761</v>
       </c>
       <c r="F55" s="6">
-        <v>6.9439999999999997E-3</v>
+        <v>6.9430000000000004E-3</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>1641</v>
       </c>
       <c r="H55" s="6">
-        <v>6.9449999999999998E-3</v>
+        <v>6.9439999999999997E-3</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>1521</v>
       </c>
       <c r="J55" s="6">
-        <v>6.9459999999999999E-3</v>
+        <v>6.9449999999999998E-3</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>1401</v>
       </c>
       <c r="L55" s="6">
-        <v>6.9449999999999998E-3</v>
+        <v>6.9439999999999997E-3</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>1281</v>
       </c>
       <c r="N55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="P55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="Q55" s="11" t="s">
         <v>1041</v>
       </c>
       <c r="R55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>921</v>
       </c>
       <c r="T55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="U55" s="11" t="s">
         <v>801</v>
       </c>
       <c r="V55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="W55" s="11" t="s">
         <v>681</v>
       </c>
       <c r="X55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="Y55" s="11" t="s">
         <v>561</v>
       </c>
       <c r="Z55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AA55" s="11" t="s">
         <v>441</v>
       </c>
       <c r="AB55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AC55" s="11" t="s">
         <v>321</v>
       </c>
       <c r="AD55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="AE55" s="11" t="s">
         <v>201</v>
@@ -11444,19 +11444,19 @@
     </row>
     <row r="58" spans="2:31">
       <c r="B58" s="6">
-        <v>4.5799999999999999E-3</v>
+        <v>4.5820000000000001E-3</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D58" s="6">
-        <v>0.104239</v>
+        <v>0.10424</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>1764</v>
       </c>
       <c r="F58" s="6">
-        <v>4.5799999999999999E-3</v>
+        <v>4.5820000000000001E-3</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>1644</v>
@@ -11468,7 +11468,7 @@
         <v>1524</v>
       </c>
       <c r="J58" s="6">
-        <v>0.103992</v>
+        <v>0.10399600000000001</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>1404</v>
@@ -11486,7 +11486,7 @@
         <v>1164</v>
       </c>
       <c r="P58" s="6">
-        <v>9.3026999999999999E-2</v>
+        <v>9.3031000000000003E-2</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>1044</v>
@@ -11504,7 +11504,7 @@
         <v>804</v>
       </c>
       <c r="V58" s="6">
-        <v>9.3026999999999999E-2</v>
+        <v>9.3031000000000003E-2</v>
       </c>
       <c r="W58" s="11" t="s">
         <v>684</v>
@@ -11522,7 +11522,7 @@
         <v>444</v>
       </c>
       <c r="AB58" s="6">
-        <v>9.3026999999999999E-2</v>
+        <v>9.3031000000000003E-2</v>
       </c>
       <c r="AC58" s="11" t="s">
         <v>324</v>
@@ -11560,7 +11560,7 @@
         <v>1525</v>
       </c>
       <c r="J59" s="6">
-        <v>2.0743000000000001E-2</v>
+        <v>2.0742E-2</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>1405</v>
@@ -11572,7 +11572,7 @@
         <v>1285</v>
       </c>
       <c r="N59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="O59" s="11" t="s">
         <v>1165</v>
@@ -11584,13 +11584,13 @@
         <v>1045</v>
       </c>
       <c r="R59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>925</v>
       </c>
       <c r="T59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="U59" s="11" t="s">
         <v>805</v>
@@ -11602,13 +11602,13 @@
         <v>685</v>
       </c>
       <c r="X59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="Y59" s="11" t="s">
         <v>565</v>
       </c>
       <c r="Z59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="AA59" s="11" t="s">
         <v>445</v>
@@ -11620,7 +11620,7 @@
         <v>325</v>
       </c>
       <c r="AD59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="AE59" s="11" t="s">
         <v>205</v>
@@ -11628,91 +11628,91 @@
     </row>
     <row r="60" spans="2:31">
       <c r="B60" s="6">
-        <v>1.0529999999999999E-3</v>
+        <v>1.062E-3</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="6">
-        <v>9.6669000000000005E-2</v>
+        <v>9.6671999999999994E-2</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>1766</v>
       </c>
       <c r="F60" s="6">
-        <v>1.0529999999999999E-3</v>
+        <v>1.062E-3</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>1646</v>
       </c>
       <c r="H60" s="6">
-        <v>1.065E-3</v>
+        <v>1.0740000000000001E-3</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>1526</v>
       </c>
       <c r="J60" s="6">
-        <v>9.6891000000000005E-2</v>
+        <v>9.6893000000000007E-2</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>1406</v>
       </c>
       <c r="L60" s="6">
-        <v>1.065E-3</v>
+        <v>1.0740000000000001E-3</v>
       </c>
       <c r="M60" s="11" t="s">
         <v>1286</v>
       </c>
       <c r="N60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>1166</v>
       </c>
       <c r="P60" s="6">
-        <v>9.5679E-2</v>
+        <v>9.5687999999999995E-2</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>1046</v>
       </c>
       <c r="R60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>926</v>
       </c>
       <c r="T60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="U60" s="11" t="s">
         <v>806</v>
       </c>
       <c r="V60" s="6">
-        <v>9.5679E-2</v>
+        <v>9.5687999999999995E-2</v>
       </c>
       <c r="W60" s="11" t="s">
         <v>686</v>
       </c>
       <c r="X60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="Y60" s="11" t="s">
         <v>566</v>
       </c>
       <c r="Z60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="AA60" s="11" t="s">
         <v>446</v>
       </c>
       <c r="AB60" s="6">
-        <v>9.5679E-2</v>
+        <v>9.5687999999999995E-2</v>
       </c>
       <c r="AC60" s="11" t="s">
         <v>326</v>
       </c>
       <c r="AD60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="AE60" s="11" t="s">
         <v>206</v>
@@ -11720,37 +11720,37 @@
     </row>
     <row r="61" spans="2:31">
       <c r="B61" s="6">
-        <v>1.165E-3</v>
+        <v>1.1689999999999999E-3</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D61" s="6">
-        <v>1.1590000000000001E-3</v>
+        <v>1.163E-3</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>1767</v>
       </c>
       <c r="F61" s="6">
-        <v>1.165E-3</v>
+        <v>1.1689999999999999E-3</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>1647</v>
       </c>
       <c r="H61" s="6">
-        <v>1.596E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>1527</v>
       </c>
       <c r="J61" s="6">
-        <v>1.6000000000000001E-3</v>
+        <v>1.604E-3</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>1407</v>
       </c>
       <c r="L61" s="6">
-        <v>1.596E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="M61" s="11" t="s">
         <v>1287</v>
@@ -11812,7 +11812,7 @@
     </row>
     <row r="62" spans="2:31">
       <c r="B62" s="6">
-        <v>2.183E-3</v>
+        <v>2.1819999999999999E-3</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>88</v>
@@ -11824,13 +11824,13 @@
         <v>1768</v>
       </c>
       <c r="F62" s="6">
-        <v>2.183E-3</v>
+        <v>2.1819999999999999E-3</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>1648</v>
       </c>
       <c r="H62" s="6">
-        <v>2.1930000000000001E-3</v>
+        <v>2.1940000000000002E-3</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>1528</v>
@@ -11842,13 +11842,13 @@
         <v>1408</v>
       </c>
       <c r="L62" s="6">
-        <v>2.1930000000000001E-3</v>
+        <v>2.1940000000000002E-3</v>
       </c>
       <c r="M62" s="11" t="s">
         <v>1288</v>
       </c>
       <c r="N62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="O62" s="11" t="s">
         <v>1168</v>
@@ -11860,13 +11860,13 @@
         <v>1048</v>
       </c>
       <c r="R62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="S62" s="11" t="s">
         <v>928</v>
       </c>
       <c r="T62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="U62" s="11" t="s">
         <v>808</v>
@@ -11878,13 +11878,13 @@
         <v>688</v>
       </c>
       <c r="X62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="Y62" s="11" t="s">
         <v>568</v>
       </c>
       <c r="Z62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="AA62" s="11" t="s">
         <v>448</v>
@@ -11896,7 +11896,7 @@
         <v>328</v>
       </c>
       <c r="AD62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="AE62" s="11" t="s">
         <v>208</v>
@@ -12088,91 +12088,91 @@
     </row>
     <row r="65" spans="2:31">
       <c r="B65" s="6">
-        <v>6.2699999999999995E-4</v>
+        <v>6.1499999999999999E-4</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D65" s="6">
-        <v>6.2699999999999995E-4</v>
+        <v>6.1499999999999999E-4</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>1771</v>
       </c>
       <c r="F65" s="6">
-        <v>6.2699999999999995E-4</v>
+        <v>6.1499999999999999E-4</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>1651</v>
       </c>
       <c r="H65" s="6">
-        <v>6.2699999999999995E-4</v>
+        <v>6.1499999999999999E-4</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>1531</v>
       </c>
       <c r="J65" s="6">
-        <v>6.2699999999999995E-4</v>
+        <v>6.1499999999999999E-4</v>
       </c>
       <c r="K65" s="11" t="s">
         <v>1411</v>
       </c>
       <c r="L65" s="6">
-        <v>6.2699999999999995E-4</v>
+        <v>6.1499999999999999E-4</v>
       </c>
       <c r="M65" s="11" t="s">
         <v>1291</v>
       </c>
       <c r="N65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="P65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>1051</v>
       </c>
       <c r="R65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="S65" s="11" t="s">
         <v>931</v>
       </c>
       <c r="T65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="U65" s="11" t="s">
         <v>811</v>
       </c>
       <c r="V65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="W65" s="11" t="s">
         <v>691</v>
       </c>
       <c r="X65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="Y65" s="11" t="s">
         <v>571</v>
       </c>
       <c r="Z65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AA65" s="11" t="s">
         <v>451</v>
       </c>
       <c r="AB65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AC65" s="11" t="s">
         <v>331</v>
       </c>
       <c r="AD65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AE65" s="11" t="s">
         <v>211</v>
@@ -12180,91 +12180,91 @@
     </row>
     <row r="66" spans="2:31">
       <c r="B66" s="6">
-        <v>4.1960000000000001E-3</v>
+        <v>4.2529999999999998E-3</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="6">
-        <v>4.1939999999999998E-3</v>
+        <v>4.2529999999999998E-3</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>1772</v>
       </c>
       <c r="F66" s="6">
-        <v>4.1960000000000001E-3</v>
+        <v>4.2529999999999998E-3</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>1652</v>
       </c>
       <c r="H66" s="6">
-        <v>4.1949999999999999E-3</v>
+        <v>4.254E-3</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>1532</v>
       </c>
       <c r="J66" s="6">
-        <v>4.1929999999999997E-3</v>
+        <v>4.2509999999999996E-3</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>1412</v>
       </c>
       <c r="L66" s="6">
-        <v>4.1949999999999999E-3</v>
+        <v>4.254E-3</v>
       </c>
       <c r="M66" s="11" t="s">
         <v>1292</v>
       </c>
       <c r="N66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>1172</v>
       </c>
       <c r="P66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="Q66" s="11" t="s">
         <v>1052</v>
       </c>
       <c r="R66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="S66" s="11" t="s">
         <v>932</v>
       </c>
       <c r="T66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="U66" s="11" t="s">
         <v>812</v>
       </c>
       <c r="V66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="W66" s="11" t="s">
         <v>692</v>
       </c>
       <c r="X66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="Y66" s="11" t="s">
         <v>572</v>
       </c>
       <c r="Z66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AA66" s="11" t="s">
         <v>452</v>
       </c>
       <c r="AB66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AC66" s="11" t="s">
         <v>332</v>
       </c>
       <c r="AD66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="AE66" s="11" t="s">
         <v>212</v>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="67" spans="2:31">
       <c r="B67" s="6">
-        <v>8.4500000000000005E-4</v>
+        <v>8.4599999999999996E-4</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>93</v>
@@ -12284,7 +12284,7 @@
         <v>1773</v>
       </c>
       <c r="F67" s="6">
-        <v>8.4500000000000005E-4</v>
+        <v>8.4599999999999996E-4</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>1653</v>
@@ -12296,7 +12296,7 @@
         <v>1533</v>
       </c>
       <c r="J67" s="6">
-        <v>5.0619999999999997E-3</v>
+        <v>5.0639999999999999E-3</v>
       </c>
       <c r="K67" s="11" t="s">
         <v>1413</v>
@@ -12308,55 +12308,55 @@
         <v>1293</v>
       </c>
       <c r="N67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="O67" s="11" t="s">
         <v>1173</v>
       </c>
       <c r="P67" s="6">
-        <v>5.581E-3</v>
+        <v>5.5820000000000002E-3</v>
       </c>
       <c r="Q67" s="11" t="s">
         <v>1053</v>
       </c>
       <c r="R67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="S67" s="11" t="s">
         <v>933</v>
       </c>
       <c r="T67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="U67" s="11" t="s">
         <v>813</v>
       </c>
       <c r="V67" s="6">
-        <v>5.581E-3</v>
+        <v>5.5820000000000002E-3</v>
       </c>
       <c r="W67" s="11" t="s">
         <v>693</v>
       </c>
       <c r="X67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="Y67" s="11" t="s">
         <v>573</v>
       </c>
       <c r="Z67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="AA67" s="11" t="s">
         <v>453</v>
       </c>
       <c r="AB67" s="6">
-        <v>5.581E-3</v>
+        <v>5.5820000000000002E-3</v>
       </c>
       <c r="AC67" s="11" t="s">
         <v>333</v>
       </c>
       <c r="AD67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="AE67" s="11" t="s">
         <v>213</v>
@@ -12364,37 +12364,37 @@
     </row>
     <row r="68" spans="2:31">
       <c r="B68" s="6">
-        <v>1.3569999999999999E-3</v>
+        <v>1.358E-3</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D68" s="6">
-        <v>1.8978999999999999E-2</v>
+        <v>1.898E-2</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>1774</v>
       </c>
       <c r="F68" s="6">
-        <v>1.3569999999999999E-3</v>
+        <v>1.358E-3</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>1654</v>
       </c>
       <c r="H68" s="6">
-        <v>1.369E-3</v>
+        <v>1.3810000000000001E-3</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>1534</v>
       </c>
       <c r="J68" s="6">
-        <v>1.8932000000000001E-2</v>
+        <v>1.8957999999999999E-2</v>
       </c>
       <c r="K68" s="11" t="s">
         <v>1414</v>
       </c>
       <c r="L68" s="6">
-        <v>1.369E-3</v>
+        <v>1.3810000000000001E-3</v>
       </c>
       <c r="M68" s="11" t="s">
         <v>1294</v>
@@ -12456,19 +12456,19 @@
     </row>
     <row r="69" spans="2:31">
       <c r="B69" s="6">
-        <v>2.2209999999999999E-3</v>
+        <v>2.225E-3</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>95</v>
       </c>
       <c r="D69" s="6">
-        <v>5.1968E-2</v>
+        <v>5.1964999999999997E-2</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>1775</v>
       </c>
       <c r="F69" s="6">
-        <v>2.2209999999999999E-3</v>
+        <v>2.225E-3</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>1655</v>
@@ -12480,7 +12480,7 @@
         <v>1535</v>
       </c>
       <c r="J69" s="6">
-        <v>4.8457E-2</v>
+        <v>4.8429E-2</v>
       </c>
       <c r="K69" s="11" t="s">
         <v>1415</v>
@@ -12492,55 +12492,55 @@
         <v>1295</v>
       </c>
       <c r="N69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>1175</v>
       </c>
       <c r="P69" s="6">
-        <v>5.0666999999999997E-2</v>
+        <v>5.0671000000000001E-2</v>
       </c>
       <c r="Q69" s="11" t="s">
         <v>1055</v>
       </c>
       <c r="R69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="S69" s="11" t="s">
         <v>935</v>
       </c>
       <c r="T69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="U69" s="11" t="s">
         <v>815</v>
       </c>
       <c r="V69" s="6">
-        <v>5.0666999999999997E-2</v>
+        <v>5.0671000000000001E-2</v>
       </c>
       <c r="W69" s="11" t="s">
         <v>695</v>
       </c>
       <c r="X69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="Y69" s="11" t="s">
         <v>575</v>
       </c>
       <c r="Z69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="AA69" s="11" t="s">
         <v>455</v>
       </c>
       <c r="AB69" s="6">
-        <v>5.0666999999999997E-2</v>
+        <v>5.0671000000000001E-2</v>
       </c>
       <c r="AC69" s="11" t="s">
         <v>335</v>
       </c>
       <c r="AD69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="AE69" s="11" t="s">
         <v>215</v>
@@ -12548,91 +12548,91 @@
     </row>
     <row r="70" spans="2:31">
       <c r="B70" s="6">
-        <v>1.544E-3</v>
+        <v>1.5709999999999999E-3</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D70" s="6">
-        <v>1.2971E-2</v>
+        <v>1.2992999999999999E-2</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1776</v>
       </c>
       <c r="F70" s="6">
-        <v>1.544E-3</v>
+        <v>1.5709999999999999E-3</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>1656</v>
       </c>
       <c r="H70" s="6">
-        <v>1.6490000000000001E-3</v>
+        <v>1.6750000000000001E-3</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>1536</v>
       </c>
       <c r="J70" s="6">
-        <v>1.3927E-2</v>
+        <v>1.3946E-2</v>
       </c>
       <c r="K70" s="11" t="s">
         <v>1416</v>
       </c>
       <c r="L70" s="6">
-        <v>1.6490000000000001E-3</v>
+        <v>1.6750000000000001E-3</v>
       </c>
       <c r="M70" s="11" t="s">
         <v>1296</v>
       </c>
       <c r="N70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>1176</v>
       </c>
       <c r="P70" s="6">
-        <v>1.3155E-2</v>
+        <v>1.3271E-2</v>
       </c>
       <c r="Q70" s="11" t="s">
         <v>1056</v>
       </c>
       <c r="R70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="S70" s="11" t="s">
         <v>936</v>
       </c>
       <c r="T70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="U70" s="11" t="s">
         <v>816</v>
       </c>
       <c r="V70" s="6">
-        <v>1.3155E-2</v>
+        <v>1.3271E-2</v>
       </c>
       <c r="W70" s="11" t="s">
         <v>696</v>
       </c>
       <c r="X70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="Y70" s="11" t="s">
         <v>576</v>
       </c>
       <c r="Z70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="AA70" s="11" t="s">
         <v>456</v>
       </c>
       <c r="AB70" s="6">
-        <v>1.3155E-2</v>
+        <v>1.3271E-2</v>
       </c>
       <c r="AC70" s="11" t="s">
         <v>336</v>
       </c>
       <c r="AD70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="AE70" s="11" t="s">
         <v>216</v>
@@ -12640,91 +12640,91 @@
     </row>
     <row r="71" spans="2:31">
       <c r="B71" s="6">
-        <v>5.7239999999999999E-3</v>
+        <v>5.7869999999999996E-3</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D71" s="6">
-        <v>5.7250000000000001E-3</v>
+        <v>5.7879999999999997E-3</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>1777</v>
       </c>
       <c r="F71" s="6">
-        <v>5.7239999999999999E-3</v>
+        <v>5.7869999999999996E-3</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>1657</v>
       </c>
       <c r="H71" s="6">
-        <v>5.757E-3</v>
+        <v>5.8209999999999998E-3</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>1537</v>
       </c>
       <c r="J71" s="6">
-        <v>5.7590000000000002E-3</v>
+        <v>5.8230000000000001E-3</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>1417</v>
       </c>
       <c r="L71" s="6">
-        <v>5.757E-3</v>
+        <v>5.8209999999999998E-3</v>
       </c>
       <c r="M71" s="11" t="s">
         <v>1297</v>
       </c>
       <c r="N71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="O71" s="11" t="s">
         <v>1177</v>
       </c>
       <c r="P71" s="6">
-        <v>5.8279999999999998E-3</v>
+        <v>5.8640000000000003E-3</v>
       </c>
       <c r="Q71" s="11" t="s">
         <v>1057</v>
       </c>
       <c r="R71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>937</v>
       </c>
       <c r="T71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="U71" s="11" t="s">
         <v>817</v>
       </c>
       <c r="V71" s="6">
-        <v>5.8279999999999998E-3</v>
+        <v>5.8640000000000003E-3</v>
       </c>
       <c r="W71" s="11" t="s">
         <v>697</v>
       </c>
       <c r="X71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="Y71" s="11" t="s">
         <v>577</v>
       </c>
       <c r="Z71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AA71" s="11" t="s">
         <v>457</v>
       </c>
       <c r="AB71" s="6">
-        <v>5.8279999999999998E-3</v>
+        <v>5.8640000000000003E-3</v>
       </c>
       <c r="AC71" s="11" t="s">
         <v>337</v>
       </c>
       <c r="AD71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="AE71" s="11" t="s">
         <v>217</v>
@@ -12732,91 +12732,91 @@
     </row>
     <row r="72" spans="2:31">
       <c r="B72" s="6">
-        <v>1.4956000000000001E-2</v>
+        <v>1.5077999999999999E-2</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D72" s="6">
-        <v>6.4827999999999997E-2</v>
+        <v>6.4865000000000006E-2</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>1778</v>
       </c>
       <c r="F72" s="6">
-        <v>1.4956000000000001E-2</v>
+        <v>1.5077999999999999E-2</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>1658</v>
       </c>
       <c r="H72" s="6">
-        <v>1.6015999999999999E-2</v>
+        <v>1.6136999999999999E-2</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>1538</v>
       </c>
       <c r="J72" s="6">
-        <v>6.3602000000000006E-2</v>
+        <v>6.3640000000000002E-2</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>1418</v>
       </c>
       <c r="L72" s="6">
-        <v>1.6015999999999999E-2</v>
+        <v>1.6136999999999999E-2</v>
       </c>
       <c r="M72" s="11" t="s">
         <v>1298</v>
       </c>
       <c r="N72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="O72" s="11" t="s">
         <v>1178</v>
       </c>
       <c r="P72" s="6">
-        <v>6.2732999999999997E-2</v>
+        <v>6.2779000000000001E-2</v>
       </c>
       <c r="Q72" s="11" t="s">
         <v>1058</v>
       </c>
       <c r="R72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="S72" s="11" t="s">
         <v>938</v>
       </c>
       <c r="T72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="U72" s="11" t="s">
         <v>818</v>
       </c>
       <c r="V72" s="6">
-        <v>6.2732999999999997E-2</v>
+        <v>6.2779000000000001E-2</v>
       </c>
       <c r="W72" s="11" t="s">
         <v>698</v>
       </c>
       <c r="X72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="Y72" s="11" t="s">
         <v>578</v>
       </c>
       <c r="Z72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AA72" s="11" t="s">
         <v>458</v>
       </c>
       <c r="AB72" s="6">
-        <v>6.2732999999999997E-2</v>
+        <v>6.2779000000000001E-2</v>
       </c>
       <c r="AC72" s="11" t="s">
         <v>338</v>
       </c>
       <c r="AD72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="AE72" s="11" t="s">
         <v>218</v>
@@ -12916,91 +12916,91 @@
     </row>
     <row r="74" spans="2:31">
       <c r="B74" s="6">
-        <v>3.4640000000000001E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D74" s="6">
-        <v>3.4629999999999999E-3</v>
+        <v>3.4740000000000001E-3</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>1780</v>
       </c>
       <c r="F74" s="6">
-        <v>3.4640000000000001E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>1660</v>
       </c>
       <c r="H74" s="6">
-        <v>3.4640000000000001E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>1540</v>
       </c>
       <c r="J74" s="6">
-        <v>3.4640000000000001E-3</v>
+        <v>3.4740000000000001E-3</v>
       </c>
       <c r="K74" s="11" t="s">
         <v>1420</v>
       </c>
       <c r="L74" s="6">
-        <v>3.4640000000000001E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="M74" s="11" t="s">
         <v>1300</v>
       </c>
       <c r="N74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="O74" s="11" t="s">
         <v>1180</v>
       </c>
       <c r="P74" s="6">
-        <v>3.447E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="Q74" s="11" t="s">
         <v>1060</v>
       </c>
       <c r="R74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="S74" s="11" t="s">
         <v>940</v>
       </c>
       <c r="T74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="U74" s="11" t="s">
         <v>820</v>
       </c>
       <c r="V74" s="6">
-        <v>3.447E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="W74" s="11" t="s">
         <v>700</v>
       </c>
       <c r="X74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="Y74" s="11" t="s">
         <v>580</v>
       </c>
       <c r="Z74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AA74" s="11" t="s">
         <v>460</v>
       </c>
       <c r="AB74" s="6">
-        <v>3.447E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AC74" s="11" t="s">
         <v>340</v>
       </c>
       <c r="AD74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="AE74" s="11" t="s">
         <v>220</v>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="75" spans="2:31">
       <c r="B75" s="6">
-        <v>1.3875E-2</v>
+        <v>1.3854999999999999E-2</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>101</v>
@@ -13020,49 +13020,49 @@
         <v>1781</v>
       </c>
       <c r="F75" s="6">
-        <v>1.3875E-2</v>
+        <v>1.3854999999999999E-2</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>1661</v>
       </c>
       <c r="H75" s="6">
-        <v>1.3875999999999999E-2</v>
+        <v>1.3857E-2</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>1541</v>
       </c>
       <c r="J75" s="6">
-        <v>1.1388000000000001E-2</v>
+        <v>1.1387E-2</v>
       </c>
       <c r="K75" s="11" t="s">
         <v>1421</v>
       </c>
       <c r="L75" s="6">
-        <v>1.3875999999999999E-2</v>
+        <v>1.3857E-2</v>
       </c>
       <c r="M75" s="11" t="s">
         <v>1301</v>
       </c>
       <c r="N75" s="6">
-        <v>2.1700000000000001E-3</v>
+        <v>2.2330000000000002E-3</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>1181</v>
       </c>
       <c r="P75" s="6">
-        <v>2.1710000000000002E-3</v>
+        <v>2.2330000000000002E-3</v>
       </c>
       <c r="Q75" s="11" t="s">
         <v>1061</v>
       </c>
       <c r="R75" s="6">
-        <v>4.5511000000000003E-2</v>
+        <v>4.4595999999999997E-2</v>
       </c>
       <c r="S75" s="11" t="s">
         <v>941</v>
       </c>
       <c r="T75" s="6">
-        <v>1.6466999999999999E-2</v>
+        <v>1.6445000000000001E-2</v>
       </c>
       <c r="U75" s="11" t="s">
         <v>821</v>
@@ -13074,13 +13074,13 @@
         <v>701</v>
       </c>
       <c r="X75" s="6">
-        <v>1.6466999999999999E-2</v>
+        <v>1.6445000000000001E-2</v>
       </c>
       <c r="Y75" s="11" t="s">
         <v>581</v>
       </c>
       <c r="Z75" s="6">
-        <v>1.6466999999999999E-2</v>
+        <v>1.6445000000000001E-2</v>
       </c>
       <c r="AA75" s="11" t="s">
         <v>461</v>
@@ -13092,7 +13092,7 @@
         <v>341</v>
       </c>
       <c r="AD75" s="6">
-        <v>1.6466999999999999E-2</v>
+        <v>1.6445000000000001E-2</v>
       </c>
       <c r="AE75" s="11" t="s">
         <v>221</v>
@@ -13100,91 +13100,91 @@
     </row>
     <row r="76" spans="2:31">
       <c r="B76" s="6">
-        <v>8.5599999999999999E-4</v>
+        <v>8.5899999999999995E-4</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D76" s="6">
-        <v>2.3217999999999999E-2</v>
+        <v>2.3203999999999999E-2</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>1782</v>
       </c>
       <c r="F76" s="6">
-        <v>8.5599999999999999E-4</v>
+        <v>8.5899999999999995E-4</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>1662</v>
       </c>
       <c r="H76" s="6">
-        <v>8.5599999999999999E-4</v>
+        <v>8.5899999999999995E-4</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>1542</v>
       </c>
       <c r="J76" s="6">
-        <v>2.3217999999999999E-2</v>
+        <v>2.3203999999999999E-2</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>1422</v>
       </c>
       <c r="L76" s="6">
-        <v>8.5599999999999999E-4</v>
+        <v>8.5899999999999995E-4</v>
       </c>
       <c r="M76" s="11" t="s">
         <v>1302</v>
       </c>
       <c r="N76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>1182</v>
       </c>
       <c r="P76" s="6">
-        <v>2.2294999999999999E-2</v>
+        <v>2.2284999999999999E-2</v>
       </c>
       <c r="Q76" s="11" t="s">
         <v>1062</v>
       </c>
       <c r="R76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="S76" s="11" t="s">
         <v>942</v>
       </c>
       <c r="T76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="U76" s="11" t="s">
         <v>822</v>
       </c>
       <c r="V76" s="6">
-        <v>2.2294999999999999E-2</v>
+        <v>2.2284999999999999E-2</v>
       </c>
       <c r="W76" s="11" t="s">
         <v>702</v>
       </c>
       <c r="X76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="Y76" s="11" t="s">
         <v>582</v>
       </c>
       <c r="Z76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AA76" s="11" t="s">
         <v>462</v>
       </c>
       <c r="AB76" s="6">
-        <v>2.2294999999999999E-2</v>
+        <v>2.2284999999999999E-2</v>
       </c>
       <c r="AC76" s="11" t="s">
         <v>342</v>
       </c>
       <c r="AD76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="AE76" s="11" t="s">
         <v>222</v>
@@ -13192,91 +13192,91 @@
     </row>
     <row r="77" spans="2:31">
       <c r="B77" s="6">
-        <v>1.1540000000000001E-3</v>
+        <v>1.1720000000000001E-3</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D77" s="6">
-        <v>6.221E-3</v>
+        <v>6.1520000000000004E-3</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>1783</v>
       </c>
       <c r="F77" s="6">
-        <v>1.1540000000000001E-3</v>
+        <v>1.1720000000000001E-3</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>1663</v>
       </c>
       <c r="H77" s="6">
-        <v>1.1540000000000001E-3</v>
+        <v>1.1720000000000001E-3</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>1543</v>
       </c>
       <c r="J77" s="6">
-        <v>6.221E-3</v>
+        <v>6.1510000000000002E-3</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>1423</v>
       </c>
       <c r="L77" s="6">
-        <v>1.1540000000000001E-3</v>
+        <v>1.1720000000000001E-3</v>
       </c>
       <c r="M77" s="11" t="s">
         <v>1303</v>
       </c>
       <c r="N77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="O77" s="11" t="s">
         <v>1183</v>
       </c>
       <c r="P77" s="6">
-        <v>5.3699999999999998E-3</v>
+        <v>5.3160000000000004E-3</v>
       </c>
       <c r="Q77" s="11" t="s">
         <v>1063</v>
       </c>
       <c r="R77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>943</v>
       </c>
       <c r="T77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="U77" s="11" t="s">
         <v>823</v>
       </c>
       <c r="V77" s="6">
-        <v>5.3699999999999998E-3</v>
+        <v>5.3160000000000004E-3</v>
       </c>
       <c r="W77" s="11" t="s">
         <v>703</v>
       </c>
       <c r="X77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="Y77" s="11" t="s">
         <v>583</v>
       </c>
       <c r="Z77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AA77" s="11" t="s">
         <v>463</v>
       </c>
       <c r="AB77" s="6">
-        <v>5.3699999999999998E-3</v>
+        <v>5.3160000000000004E-3</v>
       </c>
       <c r="AC77" s="11" t="s">
         <v>343</v>
       </c>
       <c r="AD77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="AE77" s="11" t="s">
         <v>223</v>
@@ -13290,7 +13290,7 @@
         <v>104</v>
       </c>
       <c r="D78" s="6">
-        <v>3.2200000000000002E-4</v>
+        <v>3.2299999999999999E-4</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>1784</v>
@@ -13320,7 +13320,7 @@
         <v>1304</v>
       </c>
       <c r="N78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="O78" s="11" t="s">
         <v>1184</v>
@@ -13332,13 +13332,13 @@
         <v>1064</v>
       </c>
       <c r="R78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="S78" s="11" t="s">
         <v>944</v>
       </c>
       <c r="T78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="U78" s="11" t="s">
         <v>824</v>
@@ -13350,13 +13350,13 @@
         <v>704</v>
       </c>
       <c r="X78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="Y78" s="11" t="s">
         <v>584</v>
       </c>
       <c r="Z78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="AA78" s="11" t="s">
         <v>464</v>
@@ -13368,7 +13368,7 @@
         <v>344</v>
       </c>
       <c r="AD78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="AE78" s="11" t="s">
         <v>224</v>
@@ -13418,7 +13418,7 @@
         <v>1185</v>
       </c>
       <c r="P79" s="6">
-        <v>7.5059999999999997E-3</v>
+        <v>7.5050000000000004E-3</v>
       </c>
       <c r="Q79" s="11" t="s">
         <v>1065</v>
@@ -13436,7 +13436,7 @@
         <v>825</v>
       </c>
       <c r="V79" s="6">
-        <v>7.5059999999999997E-3</v>
+        <v>7.5050000000000004E-3</v>
       </c>
       <c r="W79" s="11" t="s">
         <v>705</v>
@@ -13454,7 +13454,7 @@
         <v>465</v>
       </c>
       <c r="AB79" s="6">
-        <v>7.5059999999999997E-3</v>
+        <v>7.5050000000000004E-3</v>
       </c>
       <c r="AC79" s="11" t="s">
         <v>345</v>
@@ -13504,55 +13504,55 @@
         <v>1306</v>
       </c>
       <c r="N80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="O80" s="11" t="s">
         <v>1186</v>
       </c>
       <c r="P80" s="6">
-        <v>4.895E-3</v>
+        <v>4.8979999999999996E-3</v>
       </c>
       <c r="Q80" s="11" t="s">
         <v>1066</v>
       </c>
       <c r="R80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="S80" s="11" t="s">
         <v>946</v>
       </c>
       <c r="T80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="U80" s="11" t="s">
         <v>826</v>
       </c>
       <c r="V80" s="6">
-        <v>4.895E-3</v>
+        <v>4.8979999999999996E-3</v>
       </c>
       <c r="W80" s="11" t="s">
         <v>706</v>
       </c>
       <c r="X80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="Y80" s="11" t="s">
         <v>586</v>
       </c>
       <c r="Z80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AA80" s="11" t="s">
         <v>466</v>
       </c>
       <c r="AB80" s="6">
-        <v>4.895E-3</v>
+        <v>4.8979999999999996E-3</v>
       </c>
       <c r="AC80" s="11" t="s">
         <v>346</v>
       </c>
       <c r="AD80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="AE80" s="11" t="s">
         <v>226</v>
@@ -13602,7 +13602,7 @@
         <v>1187</v>
       </c>
       <c r="P81" s="6">
-        <v>1.1254E-2</v>
+        <v>1.1253000000000001E-2</v>
       </c>
       <c r="Q81" s="11" t="s">
         <v>1067</v>
@@ -13620,7 +13620,7 @@
         <v>827</v>
       </c>
       <c r="V81" s="6">
-        <v>1.1254E-2</v>
+        <v>1.1253000000000001E-2</v>
       </c>
       <c r="W81" s="11" t="s">
         <v>707</v>
@@ -13638,7 +13638,7 @@
         <v>467</v>
       </c>
       <c r="AB81" s="6">
-        <v>1.1254E-2</v>
+        <v>1.1253000000000001E-2</v>
       </c>
       <c r="AC81" s="11" t="s">
         <v>347</v>
@@ -13786,7 +13786,7 @@
         <v>1189</v>
       </c>
       <c r="P83" s="6">
-        <v>4.5209999999999998E-3</v>
+        <v>4.5199999999999997E-3</v>
       </c>
       <c r="Q83" s="11" t="s">
         <v>1069</v>
@@ -13804,7 +13804,7 @@
         <v>829</v>
       </c>
       <c r="V83" s="6">
-        <v>4.5209999999999998E-3</v>
+        <v>4.5199999999999997E-3</v>
       </c>
       <c r="W83" s="11" t="s">
         <v>709</v>
@@ -13822,7 +13822,7 @@
         <v>469</v>
       </c>
       <c r="AB83" s="6">
-        <v>4.5209999999999998E-3</v>
+        <v>4.5199999999999997E-3</v>
       </c>
       <c r="AC83" s="11" t="s">
         <v>349</v>
@@ -13928,91 +13928,91 @@
     </row>
     <row r="85" spans="2:31">
       <c r="B85" s="6">
-        <v>5.4640000000000001E-3</v>
+        <v>5.4679999999999998E-3</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D85" s="6">
-        <v>5.47E-3</v>
+        <v>5.4730000000000004E-3</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>1791</v>
       </c>
       <c r="F85" s="6">
-        <v>5.4640000000000001E-3</v>
+        <v>5.4679999999999998E-3</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>1671</v>
       </c>
       <c r="H85" s="6">
-        <v>5.4749999999999998E-3</v>
+        <v>5.4790000000000004E-3</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>1551</v>
       </c>
       <c r="J85" s="6">
-        <v>5.4780000000000002E-3</v>
+        <v>5.4809999999999998E-3</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>1431</v>
       </c>
       <c r="L85" s="6">
-        <v>5.4749999999999998E-3</v>
+        <v>5.4790000000000004E-3</v>
       </c>
       <c r="M85" s="11" t="s">
         <v>1311</v>
       </c>
       <c r="N85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="O85" s="11" t="s">
         <v>1191</v>
       </c>
       <c r="P85" s="6">
-        <v>5.4559999999999999E-3</v>
+        <v>5.4580000000000002E-3</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>1071</v>
       </c>
       <c r="R85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="S85" s="11" t="s">
         <v>951</v>
       </c>
       <c r="T85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="U85" s="11" t="s">
         <v>831</v>
       </c>
       <c r="V85" s="6">
-        <v>5.4559999999999999E-3</v>
+        <v>5.4580000000000002E-3</v>
       </c>
       <c r="W85" s="11" t="s">
         <v>711</v>
       </c>
       <c r="X85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="Y85" s="11" t="s">
         <v>591</v>
       </c>
       <c r="Z85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AA85" s="11" t="s">
         <v>471</v>
       </c>
       <c r="AB85" s="6">
-        <v>5.4559999999999999E-3</v>
+        <v>5.4580000000000002E-3</v>
       </c>
       <c r="AC85" s="11" t="s">
         <v>351</v>
       </c>
       <c r="AD85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="AE85" s="11" t="s">
         <v>231</v>
@@ -14296,91 +14296,91 @@
     </row>
     <row r="89" spans="2:31">
       <c r="B89" s="6">
-        <v>2.7515999999999999E-2</v>
+        <v>2.7524E-2</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D89" s="6">
-        <v>0.22937399999999999</v>
+        <v>0.229348</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>1795</v>
       </c>
       <c r="F89" s="6">
-        <v>2.7515999999999999E-2</v>
+        <v>2.7524E-2</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>1675</v>
       </c>
       <c r="H89" s="6">
-        <v>2.7626000000000001E-2</v>
+        <v>2.7635E-2</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>1555</v>
       </c>
       <c r="J89" s="6">
-        <v>0.22873399999999999</v>
+        <v>0.22870699999999999</v>
       </c>
       <c r="K89" s="11" t="s">
         <v>1435</v>
       </c>
       <c r="L89" s="6">
-        <v>2.7626000000000001E-2</v>
+        <v>2.7635E-2</v>
       </c>
       <c r="M89" s="11" t="s">
         <v>1315</v>
       </c>
       <c r="N89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="O89" s="11" t="s">
         <v>1195</v>
       </c>
       <c r="P89" s="6">
-        <v>0.230485</v>
+        <v>0.23047599999999999</v>
       </c>
       <c r="Q89" s="11" t="s">
         <v>1075</v>
       </c>
       <c r="R89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="S89" s="11" t="s">
         <v>955</v>
       </c>
       <c r="T89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="U89" s="11" t="s">
         <v>835</v>
       </c>
       <c r="V89" s="6">
-        <v>0.230485</v>
+        <v>0.23047599999999999</v>
       </c>
       <c r="W89" s="11" t="s">
         <v>715</v>
       </c>
       <c r="X89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="Y89" s="11" t="s">
         <v>595</v>
       </c>
       <c r="Z89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="AA89" s="11" t="s">
         <v>475</v>
       </c>
       <c r="AB89" s="6">
-        <v>0.230485</v>
+        <v>0.23047599999999999</v>
       </c>
       <c r="AC89" s="11" t="s">
         <v>355</v>
       </c>
       <c r="AD89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="AE89" s="11" t="s">
         <v>235</v>
@@ -14388,91 +14388,91 @@
     </row>
     <row r="90" spans="2:31">
       <c r="B90" s="6">
-        <v>4.5800000000000002E-4</v>
+        <v>4.6099999999999998E-4</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D90" s="6">
-        <v>4.7930000000000004E-3</v>
+        <v>4.7920000000000003E-3</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>1796</v>
       </c>
       <c r="F90" s="6">
-        <v>4.5800000000000002E-4</v>
+        <v>4.6099999999999998E-4</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>1676</v>
       </c>
       <c r="H90" s="6">
-        <v>4.5800000000000002E-4</v>
+        <v>4.6099999999999998E-4</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>1556</v>
       </c>
       <c r="J90" s="6">
-        <v>4.7930000000000004E-3</v>
+        <v>4.7920000000000003E-3</v>
       </c>
       <c r="K90" s="11" t="s">
         <v>1436</v>
       </c>
       <c r="L90" s="6">
-        <v>4.5800000000000002E-4</v>
+        <v>4.6099999999999998E-4</v>
       </c>
       <c r="M90" s="11" t="s">
         <v>1316</v>
       </c>
       <c r="N90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="O90" s="11" t="s">
         <v>1196</v>
       </c>
       <c r="P90" s="6">
-        <v>4.3579999999999999E-3</v>
+        <v>4.3569999999999998E-3</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>1076</v>
       </c>
       <c r="R90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="S90" s="11" t="s">
         <v>956</v>
       </c>
       <c r="T90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="U90" s="11" t="s">
         <v>836</v>
       </c>
       <c r="V90" s="6">
-        <v>4.3579999999999999E-3</v>
+        <v>4.3569999999999998E-3</v>
       </c>
       <c r="W90" s="11" t="s">
         <v>716</v>
       </c>
       <c r="X90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="Y90" s="11" t="s">
         <v>596</v>
       </c>
       <c r="Z90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="AA90" s="11" t="s">
         <v>476</v>
       </c>
       <c r="AB90" s="6">
-        <v>4.3579999999999999E-3</v>
+        <v>4.3569999999999998E-3</v>
       </c>
       <c r="AC90" s="11" t="s">
         <v>356</v>
       </c>
       <c r="AD90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="AE90" s="11" t="s">
         <v>236</v>
@@ -14486,7 +14486,7 @@
         <v>117</v>
       </c>
       <c r="D91" s="6">
-        <v>6.5129999999999993E-2</v>
+        <v>6.5129000000000006E-2</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>1797</v>
@@ -14516,55 +14516,55 @@
         <v>1317</v>
       </c>
       <c r="N91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="O91" s="11" t="s">
         <v>1197</v>
       </c>
       <c r="P91" s="6">
-        <v>6.4974000000000004E-2</v>
+        <v>6.4966999999999997E-2</v>
       </c>
       <c r="Q91" s="11" t="s">
         <v>1077</v>
       </c>
       <c r="R91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="S91" s="11" t="s">
         <v>957</v>
       </c>
       <c r="T91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="U91" s="11" t="s">
         <v>837</v>
       </c>
       <c r="V91" s="6">
-        <v>6.4974000000000004E-2</v>
+        <v>6.4966999999999997E-2</v>
       </c>
       <c r="W91" s="11" t="s">
         <v>717</v>
       </c>
       <c r="X91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="Y91" s="11" t="s">
         <v>597</v>
       </c>
       <c r="Z91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="AA91" s="11" t="s">
         <v>477</v>
       </c>
       <c r="AB91" s="6">
-        <v>6.4974000000000004E-2</v>
+        <v>6.4966999999999997E-2</v>
       </c>
       <c r="AC91" s="11" t="s">
         <v>357</v>
       </c>
       <c r="AD91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="AE91" s="11" t="s">
         <v>237</v>
@@ -14848,91 +14848,91 @@
     </row>
     <row r="95" spans="2:31">
       <c r="B95" s="6">
-        <v>8.4250000000000002E-3</v>
+        <v>8.4259999999999995E-3</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D95" s="6">
-        <v>8.4270000000000005E-3</v>
+        <v>8.4290000000000007E-3</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>1801</v>
       </c>
       <c r="F95" s="6">
-        <v>8.4250000000000002E-3</v>
+        <v>8.4259999999999995E-3</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>1681</v>
       </c>
       <c r="H95" s="6">
-        <v>8.4239999999999992E-3</v>
+        <v>8.4259999999999995E-3</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>1561</v>
       </c>
       <c r="J95" s="6">
-        <v>8.4279999999999997E-3</v>
+        <v>8.43E-3</v>
       </c>
       <c r="K95" s="11" t="s">
         <v>1441</v>
       </c>
       <c r="L95" s="6">
-        <v>8.4239999999999992E-3</v>
+        <v>8.4259999999999995E-3</v>
       </c>
       <c r="M95" s="11" t="s">
         <v>1321</v>
       </c>
       <c r="N95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="O95" s="11" t="s">
         <v>1201</v>
       </c>
       <c r="P95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="Q95" s="11" t="s">
         <v>1081</v>
       </c>
       <c r="R95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="S95" s="11" t="s">
         <v>961</v>
       </c>
       <c r="T95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="U95" s="11" t="s">
         <v>841</v>
       </c>
       <c r="V95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="W95" s="11" t="s">
         <v>721</v>
       </c>
       <c r="X95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="Y95" s="11" t="s">
         <v>601</v>
       </c>
       <c r="Z95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AA95" s="11" t="s">
         <v>481</v>
       </c>
       <c r="AB95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AC95" s="11" t="s">
         <v>361</v>
       </c>
       <c r="AD95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="AE95" s="11" t="s">
         <v>241</v>
@@ -14964,7 +14964,7 @@
         <v>1562</v>
       </c>
       <c r="J96" s="6">
-        <v>8.1309999999999993E-3</v>
+        <v>8.1320000000000003E-3</v>
       </c>
       <c r="K96" s="11" t="s">
         <v>1442</v>
@@ -15124,91 +15124,91 @@
     </row>
     <row r="98" spans="2:31">
       <c r="B98" s="6">
-        <v>1.8557000000000001E-2</v>
+        <v>1.8584E-2</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="6">
-        <v>0.11200599999999999</v>
+        <v>0.111723</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>1804</v>
       </c>
       <c r="F98" s="6">
-        <v>1.8557000000000001E-2</v>
+        <v>1.8584E-2</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>1684</v>
       </c>
       <c r="H98" s="6">
-        <v>1.8561000000000001E-2</v>
+        <v>1.8586999999999999E-2</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>1564</v>
       </c>
       <c r="J98" s="6">
-        <v>0.11189399999999999</v>
+        <v>0.111612</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>1444</v>
       </c>
       <c r="L98" s="6">
-        <v>1.8561000000000001E-2</v>
+        <v>1.8586999999999999E-2</v>
       </c>
       <c r="M98" s="11" t="s">
         <v>1324</v>
       </c>
       <c r="N98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="O98" s="11" t="s">
         <v>1204</v>
       </c>
       <c r="P98" s="6">
-        <v>0.10351299999999999</v>
+        <v>0.10330400000000001</v>
       </c>
       <c r="Q98" s="11" t="s">
         <v>1084</v>
       </c>
       <c r="R98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="S98" s="11" t="s">
         <v>964</v>
       </c>
       <c r="T98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="U98" s="11" t="s">
         <v>844</v>
       </c>
       <c r="V98" s="6">
-        <v>0.10351299999999999</v>
+        <v>0.10330400000000001</v>
       </c>
       <c r="W98" s="11" t="s">
         <v>724</v>
       </c>
       <c r="X98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="Y98" s="11" t="s">
         <v>604</v>
       </c>
       <c r="Z98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AA98" s="11" t="s">
         <v>484</v>
       </c>
       <c r="AB98" s="6">
-        <v>0.10351299999999999</v>
+        <v>0.10330400000000001</v>
       </c>
       <c r="AC98" s="11" t="s">
         <v>364</v>
       </c>
       <c r="AD98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="AE98" s="11" t="s">
         <v>244</v>
@@ -15216,7 +15216,7 @@
     </row>
     <row r="99" spans="2:31">
       <c r="B99" s="6">
-        <v>7.1599999999999995E-4</v>
+        <v>7.1699999999999997E-4</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>125</v>
@@ -15228,13 +15228,13 @@
         <v>1805</v>
       </c>
       <c r="F99" s="6">
-        <v>7.1599999999999995E-4</v>
+        <v>7.1699999999999997E-4</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>1685</v>
       </c>
       <c r="H99" s="6">
-        <v>7.1699999999999997E-4</v>
+        <v>7.18E-4</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>1565</v>
@@ -15246,61 +15246,61 @@
         <v>1445</v>
       </c>
       <c r="L99" s="6">
-        <v>7.1699999999999997E-4</v>
+        <v>7.18E-4</v>
       </c>
       <c r="M99" s="11" t="s">
         <v>1325</v>
       </c>
       <c r="N99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="O99" s="11" t="s">
         <v>1205</v>
       </c>
       <c r="P99" s="6">
-        <v>1.9827000000000001E-2</v>
+        <v>1.9826E-2</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>1085</v>
       </c>
       <c r="R99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="S99" s="11" t="s">
         <v>965</v>
       </c>
       <c r="T99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="U99" s="11" t="s">
         <v>845</v>
       </c>
       <c r="V99" s="6">
-        <v>1.9827000000000001E-2</v>
+        <v>1.9826E-2</v>
       </c>
       <c r="W99" s="11" t="s">
         <v>725</v>
       </c>
       <c r="X99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="Y99" s="11" t="s">
         <v>605</v>
       </c>
       <c r="Z99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="AA99" s="11" t="s">
         <v>485</v>
       </c>
       <c r="AB99" s="6">
-        <v>1.9827000000000001E-2</v>
+        <v>1.9826E-2</v>
       </c>
       <c r="AC99" s="11" t="s">
         <v>365</v>
       </c>
       <c r="AD99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="AE99" s="11" t="s">
         <v>245</v>
@@ -15308,91 +15308,91 @@
     </row>
     <row r="100" spans="2:31">
       <c r="B100" s="6">
-        <v>2.385E-3</v>
+        <v>2.3900000000000002E-3</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D100" s="6">
-        <v>0.10327600000000001</v>
+        <v>0.103274</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>1806</v>
       </c>
       <c r="F100" s="6">
-        <v>2.385E-3</v>
+        <v>2.3900000000000002E-3</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="H100" s="6">
-        <v>2.3939999999999999E-3</v>
+        <v>2.3990000000000001E-3</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>1566</v>
       </c>
       <c r="J100" s="6">
-        <v>0.103365</v>
+        <v>0.103363</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>1446</v>
       </c>
       <c r="L100" s="6">
-        <v>2.3939999999999999E-3</v>
+        <v>2.3990000000000001E-3</v>
       </c>
       <c r="M100" s="11" t="s">
         <v>1326</v>
       </c>
       <c r="N100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="O100" s="11" t="s">
         <v>1206</v>
       </c>
       <c r="P100" s="6">
-        <v>0.102645</v>
+        <v>0.102642</v>
       </c>
       <c r="Q100" s="11" t="s">
         <v>1086</v>
       </c>
       <c r="R100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="S100" s="11" t="s">
         <v>966</v>
       </c>
       <c r="T100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="U100" s="11" t="s">
         <v>846</v>
       </c>
       <c r="V100" s="6">
-        <v>0.102645</v>
+        <v>0.102642</v>
       </c>
       <c r="W100" s="11" t="s">
         <v>726</v>
       </c>
       <c r="X100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="Y100" s="11" t="s">
         <v>606</v>
       </c>
       <c r="Z100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="AA100" s="11" t="s">
         <v>486</v>
       </c>
       <c r="AB100" s="6">
-        <v>0.102645</v>
+        <v>0.102642</v>
       </c>
       <c r="AC100" s="11" t="s">
         <v>366</v>
       </c>
       <c r="AD100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="AE100" s="11" t="s">
         <v>246</v>
@@ -15400,91 +15400,91 @@
     </row>
     <row r="101" spans="2:31">
       <c r="B101" s="6">
-        <v>1.2489999999999999E-3</v>
+        <v>1.2520000000000001E-3</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D101" s="6">
-        <v>1.25E-3</v>
+        <v>1.253E-3</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>1807</v>
       </c>
       <c r="F101" s="6">
-        <v>1.2489999999999999E-3</v>
+        <v>1.2520000000000001E-3</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>1687</v>
       </c>
       <c r="H101" s="6">
-        <v>1.4920000000000001E-3</v>
+        <v>1.4940000000000001E-3</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>1567</v>
       </c>
       <c r="J101" s="6">
-        <v>1.4940000000000001E-3</v>
+        <v>1.4970000000000001E-3</v>
       </c>
       <c r="K101" s="11" t="s">
         <v>1447</v>
       </c>
       <c r="L101" s="6">
-        <v>1.4920000000000001E-3</v>
+        <v>1.4940000000000001E-3</v>
       </c>
       <c r="M101" s="11" t="s">
         <v>1327</v>
       </c>
       <c r="N101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="O101" s="11" t="s">
         <v>1207</v>
       </c>
       <c r="P101" s="6">
-        <v>1.1119999999999999E-3</v>
+        <v>1.114E-3</v>
       </c>
       <c r="Q101" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="R101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="S101" s="11" t="s">
         <v>967</v>
       </c>
       <c r="T101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="U101" s="11" t="s">
         <v>847</v>
       </c>
       <c r="V101" s="6">
-        <v>1.1119999999999999E-3</v>
+        <v>1.114E-3</v>
       </c>
       <c r="W101" s="11" t="s">
         <v>727</v>
       </c>
       <c r="X101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="Y101" s="11" t="s">
         <v>607</v>
       </c>
       <c r="Z101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AA101" s="11" t="s">
         <v>487</v>
       </c>
       <c r="AB101" s="6">
-        <v>1.1119999999999999E-3</v>
+        <v>1.114E-3</v>
       </c>
       <c r="AC101" s="11" t="s">
         <v>367</v>
       </c>
       <c r="AD101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="AE101" s="11" t="s">
         <v>247</v>
@@ -15492,37 +15492,37 @@
     </row>
     <row r="102" spans="2:31">
       <c r="B102" s="6">
-        <v>3.8920000000000001E-3</v>
+        <v>3.8909999999999999E-3</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D102" s="6">
-        <v>0.101177</v>
+        <v>0.101178</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>1808</v>
       </c>
       <c r="F102" s="6">
-        <v>3.8920000000000001E-3</v>
+        <v>3.8909999999999999E-3</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>1688</v>
       </c>
       <c r="H102" s="6">
-        <v>3.9039999999999999E-3</v>
+        <v>3.9029999999999998E-3</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>1568</v>
       </c>
       <c r="J102" s="6">
-        <v>0.10147200000000001</v>
+        <v>0.10147299999999999</v>
       </c>
       <c r="K102" s="11" t="s">
         <v>1448</v>
       </c>
       <c r="L102" s="6">
-        <v>3.9039999999999999E-3</v>
+        <v>3.9029999999999998E-3</v>
       </c>
       <c r="M102" s="11" t="s">
         <v>1328</v>
@@ -15620,55 +15620,55 @@
         <v>1329</v>
       </c>
       <c r="N103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="O103" s="11" t="s">
         <v>1209</v>
       </c>
       <c r="P103" s="6">
-        <v>4.6430000000000004E-3</v>
+        <v>4.6439999999999997E-3</v>
       </c>
       <c r="Q103" s="11" t="s">
         <v>1089</v>
       </c>
       <c r="R103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="S103" s="11" t="s">
         <v>969</v>
       </c>
       <c r="T103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="U103" s="11" t="s">
         <v>849</v>
       </c>
       <c r="V103" s="6">
-        <v>4.6430000000000004E-3</v>
+        <v>4.6439999999999997E-3</v>
       </c>
       <c r="W103" s="11" t="s">
         <v>729</v>
       </c>
       <c r="X103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="Y103" s="11" t="s">
         <v>609</v>
       </c>
       <c r="Z103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AA103" s="11" t="s">
         <v>489</v>
       </c>
       <c r="AB103" s="6">
-        <v>4.6430000000000004E-3</v>
+        <v>4.6439999999999997E-3</v>
       </c>
       <c r="AC103" s="11" t="s">
         <v>369</v>
       </c>
       <c r="AD103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="AE103" s="11" t="s">
         <v>249</v>
@@ -15860,91 +15860,91 @@
     </row>
     <row r="106" spans="2:31">
       <c r="B106" s="6">
-        <v>7.6220000000000003E-3</v>
+        <v>7.7029999999999998E-3</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D106" s="6">
-        <v>7.6210000000000002E-3</v>
+        <v>7.7019999999999996E-3</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>1812</v>
       </c>
       <c r="F106" s="6">
-        <v>7.6220000000000003E-3</v>
+        <v>7.7029999999999998E-3</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>1692</v>
       </c>
       <c r="H106" s="6">
-        <v>7.6220000000000003E-3</v>
+        <v>7.7029999999999998E-3</v>
       </c>
       <c r="I106" s="11" t="s">
         <v>1572</v>
       </c>
       <c r="J106" s="6">
-        <v>7.6229999999999996E-3</v>
+        <v>7.7029999999999998E-3</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>1452</v>
       </c>
       <c r="L106" s="6">
-        <v>7.6220000000000003E-3</v>
+        <v>7.7029999999999998E-3</v>
       </c>
       <c r="M106" s="11" t="s">
         <v>1332</v>
       </c>
       <c r="N106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="O106" s="11" t="s">
         <v>1212</v>
       </c>
       <c r="P106" s="6">
-        <v>7.6360000000000004E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="Q106" s="11" t="s">
         <v>1092</v>
       </c>
       <c r="R106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="S106" s="11" t="s">
         <v>972</v>
       </c>
       <c r="T106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="U106" s="11" t="s">
         <v>852</v>
       </c>
       <c r="V106" s="6">
-        <v>7.6360000000000004E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="W106" s="11" t="s">
         <v>732</v>
       </c>
       <c r="X106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="Y106" s="11" t="s">
         <v>612</v>
       </c>
       <c r="Z106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AA106" s="11" t="s">
         <v>492</v>
       </c>
       <c r="AB106" s="6">
-        <v>7.6360000000000004E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AC106" s="11" t="s">
         <v>372</v>
       </c>
       <c r="AD106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="AE106" s="11" t="s">
         <v>252</v>
@@ -15958,7 +15958,7 @@
         <v>133</v>
       </c>
       <c r="D107" s="6">
-        <v>5.7689999999999998E-3</v>
+        <v>5.7670000000000004E-3</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>1813</v>
@@ -15970,73 +15970,73 @@
         <v>1693</v>
       </c>
       <c r="H107" s="6">
-        <v>8.3500000000000002E-4</v>
+        <v>8.3799999999999999E-4</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>1573</v>
       </c>
       <c r="J107" s="6">
-        <v>5.7520000000000002E-3</v>
+        <v>5.7590000000000002E-3</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>1453</v>
       </c>
       <c r="L107" s="6">
-        <v>8.3500000000000002E-4</v>
+        <v>8.3799999999999999E-4</v>
       </c>
       <c r="M107" s="11" t="s">
         <v>1333</v>
       </c>
       <c r="N107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="O107" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="P107" s="6">
-        <v>6.0590000000000001E-3</v>
+        <v>6.0600000000000003E-3</v>
       </c>
       <c r="Q107" s="11" t="s">
         <v>1093</v>
       </c>
       <c r="R107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="S107" s="11" t="s">
         <v>973</v>
       </c>
       <c r="T107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="U107" s="11" t="s">
         <v>853</v>
       </c>
       <c r="V107" s="6">
-        <v>6.0590000000000001E-3</v>
+        <v>6.0600000000000003E-3</v>
       </c>
       <c r="W107" s="11" t="s">
         <v>733</v>
       </c>
       <c r="X107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="Y107" s="11" t="s">
         <v>613</v>
       </c>
       <c r="Z107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AA107" s="11" t="s">
         <v>493</v>
       </c>
       <c r="AB107" s="6">
-        <v>6.0590000000000001E-3</v>
+        <v>6.0600000000000003E-3</v>
       </c>
       <c r="AC107" s="11" t="s">
         <v>373</v>
       </c>
       <c r="AD107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="AE107" s="11" t="s">
         <v>253</v>
@@ -16062,19 +16062,19 @@
         <v>1694</v>
       </c>
       <c r="H108" s="6">
-        <v>1.5640000000000001E-3</v>
+        <v>1.572E-3</v>
       </c>
       <c r="I108" s="11" t="s">
         <v>1574</v>
       </c>
       <c r="J108" s="6">
-        <v>1.8171E-2</v>
+        <v>1.8187999999999999E-2</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>1454</v>
       </c>
       <c r="L108" s="6">
-        <v>1.5640000000000001E-3</v>
+        <v>1.572E-3</v>
       </c>
       <c r="M108" s="11" t="s">
         <v>1334</v>
@@ -16086,7 +16086,7 @@
         <v>1214</v>
       </c>
       <c r="P108" s="6">
-        <v>1.814E-2</v>
+        <v>1.8141999999999998E-2</v>
       </c>
       <c r="Q108" s="11" t="s">
         <v>1094</v>
@@ -16104,7 +16104,7 @@
         <v>854</v>
       </c>
       <c r="V108" s="6">
-        <v>1.814E-2</v>
+        <v>1.8141999999999998E-2</v>
       </c>
       <c r="W108" s="11" t="s">
         <v>734</v>
@@ -16122,7 +16122,7 @@
         <v>494</v>
       </c>
       <c r="AB108" s="6">
-        <v>1.814E-2</v>
+        <v>1.8141999999999998E-2</v>
       </c>
       <c r="AC108" s="11" t="s">
         <v>374</v>
@@ -16136,19 +16136,19 @@
     </row>
     <row r="109" spans="2:31">
       <c r="B109" s="6">
-        <v>3.0100000000000001E-3</v>
+        <v>3.0109999999999998E-3</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D109" s="6">
-        <v>3.8954999999999997E-2</v>
+        <v>3.8951E-2</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>1815</v>
       </c>
       <c r="F109" s="6">
-        <v>3.0100000000000001E-3</v>
+        <v>3.0109999999999998E-3</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>1695</v>
@@ -16160,7 +16160,7 @@
         <v>1575</v>
       </c>
       <c r="J109" s="6">
-        <v>3.7168E-2</v>
+        <v>3.7118999999999999E-2</v>
       </c>
       <c r="K109" s="11" t="s">
         <v>1455</v>
@@ -16172,55 +16172,55 @@
         <v>1335</v>
       </c>
       <c r="N109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="O109" s="11" t="s">
         <v>1215</v>
       </c>
       <c r="P109" s="6">
-        <v>3.8625E-2</v>
+        <v>3.8593000000000002E-2</v>
       </c>
       <c r="Q109" s="11" t="s">
         <v>1095</v>
       </c>
       <c r="R109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="S109" s="11" t="s">
         <v>975</v>
       </c>
       <c r="T109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="U109" s="11" t="s">
         <v>855</v>
       </c>
       <c r="V109" s="6">
-        <v>3.8625E-2</v>
+        <v>3.8593000000000002E-2</v>
       </c>
       <c r="W109" s="11" t="s">
         <v>735</v>
       </c>
       <c r="X109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="Y109" s="11" t="s">
         <v>615</v>
       </c>
       <c r="Z109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="AA109" s="11" t="s">
         <v>495</v>
       </c>
       <c r="AB109" s="6">
-        <v>3.8625E-2</v>
+        <v>3.8593000000000002E-2</v>
       </c>
       <c r="AC109" s="11" t="s">
         <v>375</v>
       </c>
       <c r="AD109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="AE109" s="11" t="s">
         <v>255</v>
@@ -16228,91 +16228,91 @@
     </row>
     <row r="110" spans="2:31">
       <c r="B110" s="6">
-        <v>2.8939999999999999E-3</v>
+        <v>2.8960000000000001E-3</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D110" s="6">
-        <v>1.5726E-2</v>
+        <v>1.5727000000000001E-2</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>1816</v>
       </c>
       <c r="F110" s="6">
-        <v>2.8939999999999999E-3</v>
+        <v>2.8960000000000001E-3</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>1696</v>
       </c>
       <c r="H110" s="6">
-        <v>2.8830000000000001E-3</v>
+        <v>2.885E-3</v>
       </c>
       <c r="I110" s="11" t="s">
         <v>1576</v>
       </c>
       <c r="J110" s="6">
-        <v>1.6004000000000001E-2</v>
+        <v>1.6007E-2</v>
       </c>
       <c r="K110" s="11" t="s">
         <v>1456</v>
       </c>
       <c r="L110" s="6">
-        <v>2.8830000000000001E-3</v>
+        <v>2.885E-3</v>
       </c>
       <c r="M110" s="11" t="s">
         <v>1336</v>
       </c>
       <c r="N110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="O110" s="11" t="s">
         <v>1216</v>
       </c>
       <c r="P110" s="6">
-        <v>1.5869999999999999E-2</v>
+        <v>1.5875E-2</v>
       </c>
       <c r="Q110" s="11" t="s">
         <v>1096</v>
       </c>
       <c r="R110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="S110" s="11" t="s">
         <v>976</v>
       </c>
       <c r="T110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="U110" s="11" t="s">
         <v>856</v>
       </c>
       <c r="V110" s="6">
-        <v>1.5869999999999999E-2</v>
+        <v>1.5875E-2</v>
       </c>
       <c r="W110" s="11" t="s">
         <v>736</v>
       </c>
       <c r="X110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="Y110" s="11" t="s">
         <v>616</v>
       </c>
       <c r="Z110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="AA110" s="11" t="s">
         <v>496</v>
       </c>
       <c r="AB110" s="6">
-        <v>1.5869999999999999E-2</v>
+        <v>1.5875E-2</v>
       </c>
       <c r="AC110" s="11" t="s">
         <v>376</v>
       </c>
       <c r="AD110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="AE110" s="11" t="s">
         <v>256</v>
@@ -16320,37 +16320,37 @@
     </row>
     <row r="111" spans="2:31">
       <c r="B111" s="6">
-        <v>1.0555999999999999E-2</v>
+        <v>1.0558E-2</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D111" s="6">
-        <v>1.0557E-2</v>
+        <v>1.056E-2</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>1817</v>
       </c>
       <c r="F111" s="6">
-        <v>1.0555999999999999E-2</v>
+        <v>1.0558E-2</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="H111" s="6">
-        <v>1.0553999999999999E-2</v>
+        <v>1.0555999999999999E-2</v>
       </c>
       <c r="I111" s="11" t="s">
         <v>1577</v>
       </c>
       <c r="J111" s="6">
-        <v>1.0555E-2</v>
+        <v>1.0557E-2</v>
       </c>
       <c r="K111" s="11" t="s">
         <v>1457</v>
       </c>
       <c r="L111" s="6">
-        <v>1.0553999999999999E-2</v>
+        <v>1.0555999999999999E-2</v>
       </c>
       <c r="M111" s="11" t="s">
         <v>1337</v>
@@ -16362,7 +16362,7 @@
         <v>1217</v>
       </c>
       <c r="P111" s="6">
-        <v>1.0580000000000001E-2</v>
+        <v>1.0581E-2</v>
       </c>
       <c r="Q111" s="11" t="s">
         <v>1097</v>
@@ -16380,7 +16380,7 @@
         <v>857</v>
       </c>
       <c r="V111" s="6">
-        <v>1.0580000000000001E-2</v>
+        <v>1.0581E-2</v>
       </c>
       <c r="W111" s="11" t="s">
         <v>737</v>
@@ -16398,7 +16398,7 @@
         <v>497</v>
       </c>
       <c r="AB111" s="6">
-        <v>1.0580000000000001E-2</v>
+        <v>1.0581E-2</v>
       </c>
       <c r="AC111" s="11" t="s">
         <v>377</v>
@@ -16412,91 +16412,91 @@
     </row>
     <row r="112" spans="2:31">
       <c r="B112" s="6">
-        <v>3.6785999999999999E-2</v>
+        <v>3.6963999999999997E-2</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>138</v>
       </c>
       <c r="D112" s="6">
-        <v>8.6975999999999998E-2</v>
+        <v>8.7041999999999994E-2</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>1818</v>
       </c>
       <c r="F112" s="6">
-        <v>3.6785999999999999E-2</v>
+        <v>3.6963999999999997E-2</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>1698</v>
       </c>
       <c r="H112" s="6">
-        <v>3.7190000000000001E-2</v>
+        <v>3.7392000000000002E-2</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>1578</v>
       </c>
       <c r="J112" s="6">
-        <v>8.6594000000000004E-2</v>
+        <v>8.6671999999999999E-2</v>
       </c>
       <c r="K112" s="11" t="s">
         <v>1458</v>
       </c>
       <c r="L112" s="6">
-        <v>3.7190000000000001E-2</v>
+        <v>3.7392000000000002E-2</v>
       </c>
       <c r="M112" s="11" t="s">
         <v>1338</v>
       </c>
       <c r="N112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="O112" s="11" t="s">
         <v>1218</v>
       </c>
       <c r="P112" s="6">
-        <v>8.6515999999999996E-2</v>
+        <v>8.6574999999999999E-2</v>
       </c>
       <c r="Q112" s="11" t="s">
         <v>1098</v>
       </c>
       <c r="R112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="S112" s="11" t="s">
         <v>978</v>
       </c>
       <c r="T112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="U112" s="11" t="s">
         <v>858</v>
       </c>
       <c r="V112" s="6">
-        <v>8.6515999999999996E-2</v>
+        <v>8.6574999999999999E-2</v>
       </c>
       <c r="W112" s="11" t="s">
         <v>738</v>
       </c>
       <c r="X112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="Y112" s="11" t="s">
         <v>618</v>
       </c>
       <c r="Z112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AA112" s="11" t="s">
         <v>498</v>
       </c>
       <c r="AB112" s="6">
-        <v>8.6515999999999996E-2</v>
+        <v>8.6574999999999999E-2</v>
       </c>
       <c r="AC112" s="11" t="s">
         <v>378</v>
       </c>
       <c r="AD112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="AE112" s="11" t="s">
         <v>258</v>
@@ -16596,91 +16596,91 @@
     </row>
     <row r="114" spans="1:31">
       <c r="B114" s="6">
-        <v>4.2979999999999997E-3</v>
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D114" s="6">
-        <v>4.2979999999999997E-3</v>
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>1820</v>
       </c>
       <c r="F114" s="6">
-        <v>4.2979999999999997E-3</v>
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>1700</v>
       </c>
       <c r="H114" s="6">
-        <v>4.2989999999999999E-3</v>
+        <v>4.3109999999999997E-3</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>1580</v>
       </c>
       <c r="J114" s="6">
-        <v>4.2979999999999997E-3</v>
+        <v>4.3109999999999997E-3</v>
       </c>
       <c r="K114" s="11" t="s">
         <v>1460</v>
       </c>
       <c r="L114" s="6">
-        <v>4.2989999999999999E-3</v>
+        <v>4.3109999999999997E-3</v>
       </c>
       <c r="M114" s="11" t="s">
         <v>1340</v>
       </c>
       <c r="N114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="O114" s="11" t="s">
         <v>1220</v>
       </c>
       <c r="P114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="Q114" s="11" t="s">
         <v>1100</v>
       </c>
       <c r="R114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="S114" s="11" t="s">
         <v>980</v>
       </c>
       <c r="T114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="U114" s="11" t="s">
         <v>860</v>
       </c>
       <c r="V114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="W114" s="11" t="s">
         <v>740</v>
       </c>
       <c r="X114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="Y114" s="11" t="s">
         <v>620</v>
       </c>
       <c r="Z114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AA114" s="11" t="s">
         <v>500</v>
       </c>
       <c r="AB114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AC114" s="11" t="s">
         <v>380</v>
       </c>
       <c r="AD114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="AE114" s="11" t="s">
         <v>260</v>
@@ -16688,91 +16688,91 @@
     </row>
     <row r="115" spans="1:31">
       <c r="B115" s="6">
-        <v>1.7027E-2</v>
+        <v>1.6834999999999999E-2</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D115" s="6">
-        <v>8.7989999999999995E-3</v>
+        <v>8.8050000000000003E-3</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>1821</v>
       </c>
       <c r="F115" s="6">
-        <v>1.7027E-2</v>
+        <v>1.6834999999999999E-2</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>1701</v>
       </c>
       <c r="H115" s="6">
-        <v>1.7025999999999999E-2</v>
+        <v>1.6833999999999998E-2</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>1581</v>
       </c>
       <c r="J115" s="6">
-        <v>8.7989999999999995E-3</v>
+        <v>8.8059999999999996E-3</v>
       </c>
       <c r="K115" s="11" t="s">
         <v>1461</v>
       </c>
       <c r="L115" s="6">
-        <v>1.7025999999999999E-2</v>
+        <v>1.6833999999999998E-2</v>
       </c>
       <c r="M115" s="11" t="s">
         <v>1341</v>
       </c>
       <c r="N115" s="6">
-        <v>4.5659999999999997E-3</v>
+        <v>4.6779999999999999E-3</v>
       </c>
       <c r="O115" s="11" t="s">
         <v>1221</v>
       </c>
       <c r="P115" s="6">
-        <v>4.5659999999999997E-3</v>
+        <v>4.6779999999999999E-3</v>
       </c>
       <c r="Q115" s="11" t="s">
         <v>1101</v>
       </c>
       <c r="R115" s="6">
-        <v>3.6471999999999997E-2</v>
+        <v>3.3168999999999997E-2</v>
       </c>
       <c r="S115" s="11" t="s">
         <v>981</v>
       </c>
       <c r="T115" s="6">
-        <v>1.8520999999999999E-2</v>
+        <v>1.8286E-2</v>
       </c>
       <c r="U115" s="11" t="s">
         <v>861</v>
       </c>
       <c r="V115" s="6">
-        <v>7.6280000000000002E-3</v>
+        <v>7.6379999999999998E-3</v>
       </c>
       <c r="W115" s="11" t="s">
         <v>741</v>
       </c>
       <c r="X115" s="6">
-        <v>1.8520999999999999E-2</v>
+        <v>1.8286E-2</v>
       </c>
       <c r="Y115" s="11" t="s">
         <v>621</v>
       </c>
       <c r="Z115" s="6">
-        <v>1.8520999999999999E-2</v>
+        <v>1.8286E-2</v>
       </c>
       <c r="AA115" s="11" t="s">
         <v>501</v>
       </c>
       <c r="AB115" s="6">
-        <v>7.6280000000000002E-3</v>
+        <v>7.6379999999999998E-3</v>
       </c>
       <c r="AC115" s="11" t="s">
         <v>381</v>
       </c>
       <c r="AD115" s="6">
-        <v>1.8520999999999999E-2</v>
+        <v>1.8286E-2</v>
       </c>
       <c r="AE115" s="11" t="s">
         <v>261</v>
@@ -16780,91 +16780,91 @@
     </row>
     <row r="116" spans="1:31">
       <c r="B116" s="6">
-        <v>1.201E-3</v>
+        <v>1.204E-3</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>142</v>
       </c>
       <c r="D116" s="6">
-        <v>2.6672000000000001E-2</v>
+        <v>2.6669999999999999E-2</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>1822</v>
       </c>
       <c r="F116" s="6">
-        <v>1.201E-3</v>
+        <v>1.204E-3</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>1702</v>
       </c>
       <c r="H116" s="6">
-        <v>1.201E-3</v>
+        <v>1.204E-3</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>1582</v>
       </c>
       <c r="J116" s="6">
-        <v>2.6672000000000001E-2</v>
+        <v>2.6669999999999999E-2</v>
       </c>
       <c r="K116" s="11" t="s">
         <v>1462</v>
       </c>
       <c r="L116" s="6">
-        <v>1.201E-3</v>
+        <v>1.204E-3</v>
       </c>
       <c r="M116" s="11" t="s">
         <v>1342</v>
       </c>
       <c r="N116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="O116" s="11" t="s">
         <v>1222</v>
       </c>
       <c r="P116" s="6">
-        <v>2.6224000000000001E-2</v>
+        <v>2.6223E-2</v>
       </c>
       <c r="Q116" s="11" t="s">
         <v>1102</v>
       </c>
       <c r="R116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="S116" s="11" t="s">
         <v>982</v>
       </c>
       <c r="T116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="U116" s="11" t="s">
         <v>862</v>
       </c>
       <c r="V116" s="6">
-        <v>2.6224000000000001E-2</v>
+        <v>2.6223E-2</v>
       </c>
       <c r="W116" s="11" t="s">
         <v>742</v>
       </c>
       <c r="X116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="Y116" s="11" t="s">
         <v>622</v>
       </c>
       <c r="Z116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AA116" s="11" t="s">
         <v>502</v>
       </c>
       <c r="AB116" s="6">
-        <v>2.6224000000000001E-2</v>
+        <v>2.6223E-2</v>
       </c>
       <c r="AC116" s="11" t="s">
         <v>382</v>
       </c>
       <c r="AD116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="AE116" s="11" t="s">
         <v>262</v>
@@ -16872,91 +16872,91 @@
     </row>
     <row r="117" spans="1:31">
       <c r="B117" s="6">
-        <v>2.2980000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D117" s="6">
-        <v>5.3319999999999999E-3</v>
+        <v>5.3220000000000003E-3</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>1823</v>
       </c>
       <c r="F117" s="6">
-        <v>2.2980000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>1703</v>
       </c>
       <c r="H117" s="6">
-        <v>2.2980000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>1583</v>
       </c>
       <c r="J117" s="6">
-        <v>5.3319999999999999E-3</v>
+        <v>5.3220000000000003E-3</v>
       </c>
       <c r="K117" s="11" t="s">
         <v>1463</v>
       </c>
       <c r="L117" s="6">
-        <v>2.2980000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="M117" s="11" t="s">
         <v>1343</v>
       </c>
       <c r="N117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="O117" s="11" t="s">
         <v>1223</v>
       </c>
       <c r="P117" s="6">
-        <v>4.9259999999999998E-3</v>
+        <v>4.9179999999999996E-3</v>
       </c>
       <c r="Q117" s="11" t="s">
         <v>1103</v>
       </c>
       <c r="R117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="S117" s="11" t="s">
         <v>983</v>
       </c>
       <c r="T117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="U117" s="11" t="s">
         <v>863</v>
       </c>
       <c r="V117" s="6">
-        <v>4.9259999999999998E-3</v>
+        <v>4.9179999999999996E-3</v>
       </c>
       <c r="W117" s="11" t="s">
         <v>743</v>
       </c>
       <c r="X117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="Y117" s="11" t="s">
         <v>623</v>
       </c>
       <c r="Z117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AA117" s="11" t="s">
         <v>503</v>
       </c>
       <c r="AB117" s="6">
-        <v>4.9259999999999998E-3</v>
+        <v>4.9179999999999996E-3</v>
       </c>
       <c r="AC117" s="11" t="s">
         <v>383</v>
       </c>
       <c r="AD117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="AE117" s="11" t="s">
         <v>263</v>
@@ -17148,91 +17148,91 @@
     </row>
     <row r="120" spans="1:31">
       <c r="B120" s="6">
-        <v>7.3109999999999998E-3</v>
+        <v>7.3140000000000002E-3</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D120" s="6">
-        <v>7.3140000000000002E-3</v>
+        <v>7.3169999999999997E-3</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>1826</v>
       </c>
       <c r="F120" s="6">
-        <v>7.3109999999999998E-3</v>
+        <v>7.3140000000000002E-3</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>1706</v>
       </c>
       <c r="H120" s="6">
-        <v>7.3530000000000002E-3</v>
+        <v>7.3559999999999997E-3</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>1586</v>
       </c>
       <c r="J120" s="6">
-        <v>7.352E-3</v>
+        <v>7.3540000000000003E-3</v>
       </c>
       <c r="K120" s="11" t="s">
         <v>1466</v>
       </c>
       <c r="L120" s="6">
-        <v>7.3530000000000002E-3</v>
+        <v>7.3559999999999997E-3</v>
       </c>
       <c r="M120" s="11" t="s">
         <v>1346</v>
       </c>
       <c r="N120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="O120" s="11" t="s">
         <v>1226</v>
       </c>
       <c r="P120" s="6">
-        <v>7.28E-3</v>
+        <v>7.2830000000000004E-3</v>
       </c>
       <c r="Q120" s="11" t="s">
         <v>1106</v>
       </c>
       <c r="R120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="S120" s="11" t="s">
         <v>986</v>
       </c>
       <c r="T120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="U120" s="11" t="s">
         <v>866</v>
       </c>
       <c r="V120" s="6">
-        <v>7.28E-3</v>
+        <v>7.2830000000000004E-3</v>
       </c>
       <c r="W120" s="11" t="s">
         <v>746</v>
       </c>
       <c r="X120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="Y120" s="11" t="s">
         <v>626</v>
       </c>
       <c r="Z120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AA120" s="11" t="s">
         <v>506</v>
       </c>
       <c r="AB120" s="6">
-        <v>7.28E-3</v>
+        <v>7.2830000000000004E-3</v>
       </c>
       <c r="AC120" s="11" t="s">
         <v>386</v>
       </c>
       <c r="AD120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="AE120" s="11" t="s">
         <v>266</v>
@@ -17428,77 +17428,77 @@
       </c>
       <c r="B123" s="5">
         <f>AVERAGE(B3:B122)</f>
-        <v>8.2057416666666671E-3</v>
+        <v>8.2103500000000034E-3</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="5">
         <f>AVERAGE(D3:D122)</f>
-        <v>2.4110374999999986E-2</v>
+        <v>2.4107016666666661E-2</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="5">
         <f>AVERAGE(F3:F122)</f>
-        <v>8.2057416666666671E-3</v>
+        <v>8.2103500000000034E-3</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="5">
         <f>AVERAGE(H3:H122)</f>
-        <v>8.2393333333333329E-3</v>
+        <v>8.2444249999999979E-3</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="5">
         <f>AVERAGE(J3:J122)</f>
-        <v>2.4054783333333336E-2</v>
+        <v>2.4051375E-2</v>
       </c>
       <c r="K123" s="13"/>
       <c r="L123" s="5">
         <f>AVERAGE(L3:L122)</f>
-        <v>8.2393333333333329E-3</v>
+        <v>8.2444249999999979E-3</v>
       </c>
       <c r="M123" s="13"/>
       <c r="N123" s="5">
         <f>AVERAGE(N3:N122)</f>
-        <v>5.5215333333333335E-3</v>
+        <v>5.5314000000000058E-3</v>
       </c>
       <c r="O123" s="13"/>
       <c r="P123" s="5">
         <f>AVERAGE(P3:P122)</f>
-        <v>2.3656333333333328E-2</v>
+        <v>2.3657499999999995E-2</v>
       </c>
       <c r="Q123" s="13"/>
       <c r="R123" s="5">
         <f>AVERAGE(R3:R122)</f>
-        <v>8.6398916666666648E-3</v>
+        <v>8.6057250000000016E-3</v>
       </c>
       <c r="S123" s="13"/>
       <c r="T123" s="5">
         <f>AVERAGE(T3:T122)</f>
-        <v>8.1874249999999964E-3</v>
+        <v>8.1921416666666681E-3</v>
       </c>
       <c r="U123" s="13"/>
       <c r="V123" s="5">
         <f>AVERAGE(V3:V122)</f>
-        <v>2.3745466666666663E-2</v>
+        <v>2.3744524999999999E-2</v>
       </c>
       <c r="W123" s="13"/>
       <c r="X123" s="5">
         <f>AVERAGE(X3:X122)</f>
-        <v>8.1874249999999964E-3</v>
+        <v>8.1921416666666681E-3</v>
       </c>
       <c r="Y123" s="13"/>
       <c r="Z123" s="5">
         <f>AVERAGE(Z3:Z122)</f>
-        <v>8.1874249999999964E-3</v>
+        <v>8.1921416666666681E-3</v>
       </c>
       <c r="AA123" s="13"/>
       <c r="AB123" s="5">
         <f>AVERAGE(AB3:AB122)</f>
-        <v>2.3745466666666663E-2</v>
+        <v>2.3744524999999999E-2</v>
       </c>
       <c r="AC123" s="13"/>
       <c r="AD123" s="5">
         <f>AVERAGE(AD3:AD122)</f>
-        <v>8.1874249999999964E-3</v>
+        <v>8.1921416666666681E-3</v>
       </c>
       <c r="AE123" s="13"/>
     </row>
@@ -17538,7 +17538,7 @@
       <c r="M124" s="10"/>
       <c r="N124" s="3">
         <f>MEDIAN(N3:N122)</f>
-        <v>4.2120000000000005E-3</v>
+        <v>4.2404999999999995E-3</v>
       </c>
       <c r="O124" s="10"/>
       <c r="P124" s="3">
@@ -17548,12 +17548,12 @@
       <c r="Q124" s="10"/>
       <c r="R124" s="3">
         <f>MEDIAN(R3:R122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="S124" s="10"/>
       <c r="T124" s="3">
         <f>MEDIAN(T3:T122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="U124" s="10"/>
       <c r="V124" s="3">
@@ -17563,12 +17563,12 @@
       <c r="W124" s="10"/>
       <c r="X124" s="3">
         <f>MEDIAN(X3:X122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="Y124" s="10"/>
       <c r="Z124" s="3">
         <f>MEDIAN(Z3:Z122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AA124" s="10"/>
       <c r="AB124" s="3">
@@ -17578,7 +17578,7 @@
       <c r="AC124" s="10"/>
       <c r="AD124" s="3">
         <f>MEDIAN(AD3:AD122)</f>
-        <v>4.5614999999999996E-3</v>
+        <v>4.5605000000000003E-3</v>
       </c>
       <c r="AE124" s="10"/>
     </row>
@@ -17588,77 +17588,77 @@
       </c>
       <c r="B125" s="5">
         <f>AVERAGE(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
-        <v>6.1751060606060615E-3</v>
+        <v>6.178590909090907E-3</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="5">
         <f>AVERAGE(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
-        <v>6.175848484848482E-3</v>
+        <v>6.1793939393939394E-3</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="5">
         <f>AVERAGE(F3:F7,F12:F17,F21,F23:F26,F31,F34,F39:F47,F52:F57,F61,F63:F66,F71,F74,F79:F87,F92:F97,F101,F103:F106,F111,F114,F119:F122)</f>
-        <v>6.1751060606060615E-3</v>
+        <v>6.178590909090907E-3</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="5">
         <f>AVERAGE(H3:H7,H12:H17,H21,H23:H26,H31,H34,H39:H47,H52:H57,H61,H63:H66,H71,H74,H79:H87,H92:H97,H101,H103:H106,H111,H114,H119:H122)</f>
-        <v>6.1895303030303044E-3</v>
+        <v>6.1930757575757592E-3</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="5">
         <f>AVERAGE(J3:J7,J12:J17,J21,J23:J26,J31,J34,J39:J47,J52:J57,J61,J63:J66,J71,J74,J79:J87,J92:J97,J101,J103:J106,J111,J114,J119:J122)</f>
-        <v>6.1906818181818174E-3</v>
+        <v>6.19418181818182E-3</v>
       </c>
       <c r="K125" s="13"/>
       <c r="L125" s="5">
         <f>AVERAGE(L3:L7,L12:L17,L21,L23:L26,L31,L34,L39:L47,L52:L57,L61,L63:L66,L71,L74,L79:L87,L92:L97,L101,L103:L106,L111,L114,L119:L122)</f>
-        <v>6.1895303030303044E-3</v>
+        <v>6.1930757575757592E-3</v>
       </c>
       <c r="M125" s="13"/>
       <c r="N125" s="5">
         <f>AVERAGE(N3:N7,N12:N17,N21,N23:N26,N31,N34,N39:N47,N52:N57,N61,N63:N66,N71,N74,N79:N87,N92:N97,N101,N103:N106,N111,N114,N119:N122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="O125" s="13"/>
       <c r="P125" s="5">
         <f>AVERAGE(P3:P7,P12:P17,P21,P23:P26,P31,P34,P39:P47,P52:P57,P61,P63:P66,P71,P74,P79:P87,P92:P97,P101,P103:P106,P111,P114,P119:P122)</f>
-        <v>6.1085303030303049E-3</v>
+        <v>6.1119696969696982E-3</v>
       </c>
       <c r="Q125" s="13"/>
       <c r="R125" s="5">
         <f>AVERAGE(R3:R7,R12:R17,R21,R23:R26,R31,R34,R39:R47,R52:R57,R61,R63:R66,R71,R74,R79:R87,R92:R97,R101,R103:R106,R111,R114,R119:R122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="S125" s="13"/>
       <c r="T125" s="5">
         <f>AVERAGE(T3:T7,T12:T17,T21,T23:T26,T31,T34,T39:T47,T52:T57,T61,T63:T66,T71,T74,T79:T87,T92:T97,T101,T103:T106,T111,T114,T119:T122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="U125" s="13"/>
       <c r="V125" s="5">
         <f>AVERAGE(V3:V7,V12:V17,V21,V23:V26,V31,V34,V39:V47,V52:V57,V61,V63:V66,V71,V74,V79:V87,V92:V97,V101,V103:V106,V111,V114,V119:V122)</f>
-        <v>6.1085303030303049E-3</v>
+        <v>6.1119696969696982E-3</v>
       </c>
       <c r="W125" s="13"/>
       <c r="X125" s="5">
         <f>AVERAGE(X3:X7,X12:X17,X21,X23:X26,X31,X34,X39:X47,X52:X57,X61,X63:X66,X71,X74,X79:X87,X92:X97,X101,X103:X106,X111,X114,X119:X122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="Y125" s="13"/>
       <c r="Z125" s="5">
         <f>AVERAGE(Z3:Z7,Z12:Z17,Z21,Z23:Z26,Z31,Z34,Z39:Z47,Z52:Z57,Z61,Z63:Z66,Z71,Z74,Z79:Z87,Z92:Z97,Z101,Z103:Z106,Z111,Z114,Z119:Z122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AA125" s="13"/>
       <c r="AB125" s="5">
         <f>AVERAGE(AB3:AB7,AB12:AB17,AB21,AB23:AB26,AB31,AB34,AB39:AB47,AB52:AB57,AB61,AB63:AB66,AB71,AB74,AB79:AB87,AB92:AB97,AB101,AB103:AB106,AB111,AB114,AB119:AB122)</f>
-        <v>6.1085303030303049E-3</v>
+        <v>6.1119696969696982E-3</v>
       </c>
       <c r="AC125" s="13"/>
       <c r="AD125" s="5">
         <f>AVERAGE(AD3:AD7,AD12:AD17,AD21,AD23:AD26,AD31,AD34,AD39:AD47,AD52:AD57,AD61,AD63:AD66,AD71,AD74,AD79:AD87,AD92:AD97,AD101,AD103:AD106,AD111,AD114,AD119:AD122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="AE125" s="13"/>
     </row>
@@ -17668,77 +17668,77 @@
       </c>
       <c r="B126" s="3">
         <f>MEDIAN(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
-        <v>5.594E-3</v>
+        <v>5.6274999999999997E-3</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="3">
         <f>MEDIAN(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
-        <v>5.5975E-3</v>
+        <v>5.6305000000000001E-3</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="3">
         <f>MEDIAN(F3:F7,F12:F17,F21,F23:F26,F31,F34,F39:F47,F52:F57,F61,F63:F66,F71,F74,F79:F87,F92:F97,F101,F103:F106,F111,F114,F119:F122)</f>
-        <v>5.594E-3</v>
+        <v>5.6274999999999997E-3</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="3">
         <f>MEDIAN(H3:H7,H12:H17,H21,H23:H26,H31,H34,H39:H47,H52:H57,H61,H63:H66,H71,H74,H79:H87,H92:H97,H101,H103:H106,H111,H114,H119:H122)</f>
-        <v>5.6159999999999995E-3</v>
+        <v>5.6500000000000005E-3</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="3">
         <f>MEDIAN(J3:J7,J12:J17,J21,J23:J26,J31,J34,J39:J47,J52:J57,J61,J63:J66,J71,J74,J79:J87,J92:J97,J101,J103:J106,J111,J114,J119:J122)</f>
-        <v>5.6185000000000002E-3</v>
+        <v>5.6519999999999999E-3</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="3">
         <f>MEDIAN(L3:L7,L12:L17,L21,L23:L26,L31,L34,L39:L47,L52:L57,L61,L63:L66,L71,L74,L79:L87,L92:L97,L101,L103:L106,L111,L114,L119:L122)</f>
-        <v>5.6159999999999995E-3</v>
+        <v>5.6500000000000005E-3</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="3">
         <f>MEDIAN(N3:N7,N12:N17,N21,N23:N26,N31,N34,N39:N47,N52:N57,N61,N63:N66,N71,N74,N79:N87,N92:N97,N101,N103:N106,N111,N114,N119:N122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="O126" s="10"/>
       <c r="P126" s="3">
         <f>MEDIAN(P3:P7,P12:P17,P21,P23:P26,P31,P34,P39:P47,P52:P57,P61,P63:P66,P71,P74,P79:P87,P92:P97,P101,P103:P106,P111,P114,P119:P122)</f>
-        <v>5.6419999999999994E-3</v>
+        <v>5.6500000000000005E-3</v>
       </c>
       <c r="Q126" s="10"/>
       <c r="R126" s="3">
         <f>MEDIAN(R3:R7,R12:R17,R21,R23:R26,R31,R34,R39:R47,R52:R57,R61,R63:R66,R71,R74,R79:R87,R92:R97,R101,R103:R106,R111,R114,R119:R122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="S126" s="10"/>
       <c r="T126" s="3">
         <f>MEDIAN(T3:T7,T12:T17,T21,T23:T26,T31,T34,T39:T47,T52:T57,T61,T63:T66,T71,T74,T79:T87,T92:T97,T101,T103:T106,T111,T114,T119:T122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="U126" s="10"/>
       <c r="V126" s="3">
         <f>MEDIAN(V3:V7,V12:V17,V21,V23:V26,V31,V34,V39:V47,V52:V57,V61,V63:V66,V71,V74,V79:V87,V92:V97,V101,V103:V106,V111,V114,V119:V122)</f>
-        <v>5.6419999999999994E-3</v>
+        <v>5.6500000000000005E-3</v>
       </c>
       <c r="W126" s="10"/>
       <c r="X126" s="3">
         <f>MEDIAN(X3:X7,X12:X17,X21,X23:X26,X31,X34,X39:X47,X52:X57,X61,X63:X66,X71,X74,X79:X87,X92:X97,X101,X103:X106,X111,X114,X119:X122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="3">
         <f>MEDIAN(Z3:Z7,Z12:Z17,Z21,Z23:Z26,Z31,Z34,Z39:Z47,Z52:Z57,Z61,Z63:Z66,Z71,Z74,Z79:Z87,Z92:Z97,Z101,Z103:Z106,Z111,Z114,Z119:Z122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AA126" s="10"/>
       <c r="AB126" s="3">
         <f>MEDIAN(AB3:AB7,AB12:AB17,AB21,AB23:AB26,AB31,AB34,AB39:AB47,AB52:AB57,AB61,AB63:AB66,AB71,AB74,AB79:AB87,AB92:AB97,AB101,AB103:AB106,AB111,AB114,AB119:AB122)</f>
-        <v>5.6419999999999994E-3</v>
+        <v>5.6500000000000005E-3</v>
       </c>
       <c r="AC126" s="10"/>
       <c r="AD126" s="3">
         <f>MEDIAN(AD3:AD7,AD12:AD17,AD21,AD23:AD26,AD31,AD34,AD39:AD47,AD52:AD57,AD61,AD63:AD66,AD71,AD74,AD79:AD87,AD92:AD97,AD101,AD103:AD106,AD111,AD114,AD119:AD122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="AE126" s="10"/>
     </row>
@@ -17748,77 +17748,77 @@
       </c>
       <c r="B127" s="5">
         <f>AVERAGE(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
-        <v>1.0687629629629629E-2</v>
+        <v>1.069361111111111E-2</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="5">
         <f>AVERAGE(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
-        <v>4.6030351851851843E-2</v>
+        <v>4.6018555555555549E-2</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="5">
         <f>AVERAGE(F8:F11,F18:F20,F22,F27:F30,F32:F33,F35:F38,F48:F51,F58:F60,F62,F67:F70,F72:F73,F75:F78,F88:F91,F98:F100,F102,F107:F110,F112:F113,F115:F118)</f>
-        <v>1.0687629629629629E-2</v>
+        <v>1.069361111111111E-2</v>
       </c>
       <c r="G127" s="13"/>
       <c r="H127" s="5">
         <f>AVERAGE(H8:H11,H18:H20,H22,H27:H30,H32:H33,H35:H38,H48:H51,H58:H60,H62,H67:H70,H72:H73,H75:H78,H88:H91,H98:H100,H102,H107:H110,H112:H113,H115:H118)</f>
-        <v>1.0744648148148151E-2</v>
+        <v>1.0751629629629632E-2</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" s="5">
         <f>AVERAGE(J8:J11,J18:J20,J22,J27:J30,J32:J33,J35:J38,J48:J51,J58:J60,J62,J67:J70,J72:J73,J75:J78,J88:J91,J98:J100,J102,J107:J110,J112:J113,J115:J118)</f>
-        <v>4.5888685185185185E-2</v>
+        <v>4.5876833333333332E-2</v>
       </c>
       <c r="K127" s="13"/>
       <c r="L127" s="5">
         <f>AVERAGE(L8:L11,L18:L20,L22,L27:L30,L32:L33,L35:L38,L48:L51,L58:L60,L62,L67:L70,L72:L73,L75:L78,L88:L91,L98:L100,L102,L107:L110,L112:L113,L115:L118)</f>
-        <v>1.0744648148148151E-2</v>
+        <v>1.0751629629629632E-2</v>
       </c>
       <c r="M127" s="13"/>
       <c r="N127" s="5">
         <f>AVERAGE(N8:N11,N18:N20,N22,N27:N30,N32:N33,N35:N38,N48:N51,N58:N60,N62,N67:N70,N72:N73,N75:N78,N88:N91,N98:N100,N102,N107:N110,N112:N113,N115:N118)</f>
-        <v>4.8037777777777783E-3</v>
+        <v>4.8215000000000011E-3</v>
       </c>
       <c r="O127" s="13"/>
       <c r="P127" s="5">
         <f>AVERAGE(P8:P11,P18:P20,P22,P27:P30,P32:P33,P35:P38,P48:P51,P58:P60,P62,P67:P70,P72:P73,P75:P78,P88:P91,P98:P100,P102,P107:P110,P112:P113,P115:P118)</f>
-        <v>4.510364814814815E-2</v>
+        <v>4.5102037037037024E-2</v>
       </c>
       <c r="Q127" s="13"/>
       <c r="R127" s="5">
         <f>AVERAGE(R8:R11,R18:R20,R22,R27:R30,R32:R33,R35:R38,R48:R51,R58:R60,R62,R67:R70,R72:R73,R75:R78,R88:R91,R98:R100,R102,R107:R110,R112:R113,R115:R118)</f>
-        <v>1.1733462962962966E-2</v>
+        <v>1.1653333333333342E-2</v>
       </c>
       <c r="S127" s="13"/>
       <c r="T127" s="5">
         <f>AVERAGE(T8:T11,T18:T20,T22,T27:T30,T32:T33,T35:T38,T48:T51,T58:T60,T62,T67:T70,T72:T73,T75:T78,T88:T91,T98:T100,T102,T107:T110,T112:T113,T115:T118)</f>
-        <v>1.0727981481481482E-2</v>
+        <v>1.0734259259259268E-2</v>
       </c>
       <c r="U127" s="13"/>
       <c r="V127" s="5">
         <f>AVERAGE(V8:V11,V18:V20,V22,V27:V30,V32:V33,V35:V38,V48:V51,V58:V60,V62,V67:V70,V72:V73,V75:V78,V88:V91,V98:V100,V102,V107:V110,V112:V113,V115:V118)</f>
-        <v>4.5301722222222222E-2</v>
+        <v>4.5295425925925913E-2</v>
       </c>
       <c r="W127" s="13"/>
       <c r="X127" s="5">
         <f>AVERAGE(X8:X11,X18:X20,X22,X27:X30,X32:X33,X35:X38,X48:X51,X58:X60,X62,X67:X70,X72:X73,X75:X78,X88:X91,X98:X100,X102,X107:X110,X112:X113,X115:X118)</f>
-        <v>1.0727981481481482E-2</v>
+        <v>1.0734259259259268E-2</v>
       </c>
       <c r="Y127" s="13"/>
       <c r="Z127" s="5">
         <f>AVERAGE(Z8:Z11,Z18:Z20,Z22,Z27:Z30,Z32:Z33,Z35:Z38,Z48:Z51,Z58:Z60,Z62,Z67:Z70,Z72:Z73,Z75:Z78,Z88:Z91,Z98:Z100,Z102,Z107:Z110,Z112:Z113,Z115:Z118)</f>
-        <v>1.0727981481481482E-2</v>
+        <v>1.0734259259259268E-2</v>
       </c>
       <c r="AA127" s="13"/>
       <c r="AB127" s="5">
         <f>AVERAGE(AB8:AB11,AB18:AB20,AB22,AB27:AB30,AB32:AB33,AB35:AB38,AB48:AB51,AB58:AB60,AB62,AB67:AB70,AB72:AB73,AB75:AB78,AB88:AB91,AB98:AB100,AB102,AB107:AB110,AB112:AB113,AB115:AB118)</f>
-        <v>4.5301722222222222E-2</v>
+        <v>4.5295425925925913E-2</v>
       </c>
       <c r="AC127" s="13"/>
       <c r="AD127" s="5">
         <f>AVERAGE(AD8:AD11,AD18:AD20,AD22,AD27:AD30,AD32:AD33,AD35:AD38,AD48:AD51,AD58:AD60,AD62,AD67:AD70,AD72:AD73,AD75:AD78,AD88:AD91,AD98:AD100,AD102,AD107:AD110,AD112:AD113,AD115:AD118)</f>
-        <v>1.0727981481481482E-2</v>
+        <v>1.0734259259259268E-2</v>
       </c>
       <c r="AE127" s="13"/>
     </row>
@@ -17828,42 +17828,42 @@
       </c>
       <c r="B128" s="3">
         <f>MEDIAN(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
-        <v>2.202E-3</v>
+        <v>2.2034999999999997E-3</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="3">
         <f>MEDIAN(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
-        <v>1.9147000000000001E-2</v>
+        <v>1.9148499999999999E-2</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="3">
         <f>MEDIAN(F8:F11,F18:F20,F22,F27:F30,F32:F33,F35:F38,F48:F51,F58:F60,F62,F67:F70,F72:F73,F75:F78,F88:F91,F98:F100,F102,F107:F110,F112:F113,F115:F118)</f>
-        <v>2.202E-3</v>
+        <v>2.2034999999999997E-3</v>
       </c>
       <c r="G128" s="10"/>
       <c r="H128" s="3">
         <f>MEDIAN(H8:H11,H18:H20,H22,H27:H30,H32:H33,H35:H38,H48:H51,H58:H60,H62,H67:H70,H72:H73,H75:H78,H88:H91,H98:H100,H102,H107:H110,H112:H113,H115:H118)</f>
-        <v>2.2455000000000001E-3</v>
+        <v>2.2469999999999999E-3</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="3">
         <f>MEDIAN(J8:J11,J18:J20,J22,J27:J30,J32:J33,J35:J38,J48:J51,J58:J60,J62,J67:J70,J72:J73,J75:J78,J88:J91,J98:J100,J102,J107:J110,J112:J113,J115:J118)</f>
-        <v>1.9108E-2</v>
+        <v>1.91145E-2</v>
       </c>
       <c r="K128" s="10"/>
       <c r="L128" s="3">
         <f>MEDIAN(L8:L11,L18:L20,L22,L27:L30,L32:L33,L35:L38,L48:L51,L58:L60,L62,L67:L70,L72:L73,L75:L78,L88:L91,L98:L100,L102,L107:L110,L112:L113,L115:L118)</f>
-        <v>2.2455000000000001E-3</v>
+        <v>2.2469999999999999E-3</v>
       </c>
       <c r="M128" s="10"/>
       <c r="N128" s="3">
         <f>MEDIAN(N8:N11,N18:N20,N22,N27:N30,N32:N33,N35:N38,N48:N51,N58:N60,N62,N67:N70,N72:N73,N75:N78,N88:N91,N98:N100,N102,N107:N110,N112:N113,N115:N118)</f>
-        <v>1.9705E-3</v>
+        <v>1.9710000000000001E-3</v>
       </c>
       <c r="O128" s="10"/>
       <c r="P128" s="3">
         <f>MEDIAN(P8:P11,P18:P20,P22,P27:P30,P32:P33,P35:P38,P48:P51,P58:P60,P62,P67:P70,P72:P73,P75:P78,P88:P91,P98:P100,P102,P107:P110,P112:P113,P115:P118)</f>
-        <v>1.9127499999999999E-2</v>
+        <v>1.9159500000000003E-2</v>
       </c>
       <c r="Q128" s="10"/>
       <c r="R128" s="3">
@@ -17878,7 +17878,7 @@
       <c r="U128" s="10"/>
       <c r="V128" s="3">
         <f>MEDIAN(V8:V11,V18:V20,V22,V27:V30,V32:V33,V35:V38,V48:V51,V58:V60,V62,V67:V70,V72:V73,V75:V78,V88:V91,V98:V100,V102,V107:V110,V112:V113,V115:V118)</f>
-        <v>1.9127499999999999E-2</v>
+        <v>1.9159500000000003E-2</v>
       </c>
       <c r="W128" s="10"/>
       <c r="X128" s="3">
@@ -17893,7 +17893,7 @@
       <c r="AA128" s="10"/>
       <c r="AB128" s="3">
         <f>MEDIAN(AB8:AB11,AB18:AB20,AB22,AB27:AB30,AB32:AB33,AB35:AB38,AB48:AB51,AB58:AB60,AB62,AB67:AB70,AB72:AB73,AB75:AB78,AB88:AB91,AB98:AB100,AB102,AB107:AB110,AB112:AB113,AB115:AB118)</f>
-        <v>1.9127499999999999E-2</v>
+        <v>1.9159500000000003E-2</v>
       </c>
       <c r="AC128" s="10"/>
       <c r="AD128" s="3">
@@ -17908,77 +17908,77 @@
       </c>
       <c r="B129" s="5">
         <f>AVERAGE(B43:B82)</f>
-        <v>6.8724999999999993E-3</v>
+        <v>6.8808500000000009E-3</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="5">
         <f>AVERAGE(D43:D82)</f>
-        <v>2.3623300000000003E-2</v>
+        <v>2.3626125000000005E-2</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="5">
         <f>AVERAGE(F43:F82)</f>
-        <v>6.8724999999999993E-3</v>
+        <v>6.8808500000000009E-3</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="5">
         <f>AVERAGE(H43:H82)</f>
-        <v>6.9303750000000008E-3</v>
+        <v>6.9389000000000004E-3</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="5">
         <f>AVERAGE(J43:J82)</f>
-        <v>2.3527200000000002E-2</v>
+        <v>2.3530000000000002E-2</v>
       </c>
       <c r="K129" s="13"/>
       <c r="L129" s="5">
         <f>AVERAGE(L43:L82)</f>
-        <v>6.9303750000000008E-3</v>
+        <v>6.9389000000000004E-3</v>
       </c>
       <c r="M129" s="13"/>
       <c r="N129" s="5">
         <f>AVERAGE(N43:N82)</f>
-        <v>4.1596749999999998E-3</v>
+        <v>4.1704000000000003E-3</v>
       </c>
       <c r="O129" s="13"/>
       <c r="P129" s="5">
         <f>AVERAGE(P43:P82)</f>
-        <v>2.285945E-2</v>
+        <v>2.2867400000000003E-2</v>
       </c>
       <c r="Q129" s="13"/>
       <c r="R129" s="5">
         <f>AVERAGE(R43:R82)</f>
-        <v>7.5818499999999985E-3</v>
+        <v>7.5681249999999976E-3</v>
       </c>
       <c r="S129" s="13"/>
       <c r="T129" s="5">
         <f>AVERAGE(T43:T82)</f>
-        <v>6.8528249999999982E-3</v>
+        <v>6.8614249999999974E-3</v>
       </c>
       <c r="U129" s="13"/>
       <c r="V129" s="5">
         <f>AVERAGE(V43:V82)</f>
-        <v>2.3027850000000002E-2</v>
+        <v>2.3034250000000003E-2</v>
       </c>
       <c r="W129" s="13"/>
       <c r="X129" s="5">
         <f>AVERAGE(X43:X82)</f>
-        <v>6.8528249999999982E-3</v>
+        <v>6.8614249999999974E-3</v>
       </c>
       <c r="Y129" s="13"/>
       <c r="Z129" s="5">
         <f>AVERAGE(Z43:Z82)</f>
-        <v>6.8528249999999982E-3</v>
+        <v>6.8614249999999974E-3</v>
       </c>
       <c r="AA129" s="13"/>
       <c r="AB129" s="5">
         <f>AVERAGE(AB43:AB82)</f>
-        <v>2.3027850000000002E-2</v>
+        <v>2.3034250000000003E-2</v>
       </c>
       <c r="AC129" s="13"/>
       <c r="AD129" s="5">
         <f>AVERAGE(AD43:AD82)</f>
-        <v>6.8528249999999982E-3</v>
+        <v>6.8614249999999974E-3</v>
       </c>
       <c r="AE129" s="13"/>
     </row>
@@ -17988,17 +17988,17 @@
       </c>
       <c r="B130" s="3">
         <f>MEDIAN(B43:B82)</f>
-        <v>4.5854999999999993E-3</v>
+        <v>4.5865000000000003E-3</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="3">
         <f>MEDIAN(D43:D82)</f>
-        <v>6.1930000000000006E-3</v>
+        <v>6.1585000000000008E-3</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="3">
         <f>MEDIAN(F43:F82)</f>
-        <v>4.5854999999999993E-3</v>
+        <v>4.5865000000000003E-3</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="3">
@@ -18008,7 +18008,7 @@
       <c r="I130" s="10"/>
       <c r="J130" s="3">
         <f>MEDIAN(J43:J82)</f>
-        <v>6.1900000000000002E-3</v>
+        <v>6.1550000000000007E-3</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="3">
@@ -18018,47 +18018,47 @@
       <c r="M130" s="10"/>
       <c r="N130" s="3">
         <f>MEDIAN(N43:N82)</f>
-        <v>3.8105000000000005E-3</v>
+        <v>3.8114999999999998E-3</v>
       </c>
       <c r="O130" s="10"/>
       <c r="P130" s="3">
         <f>MEDIAN(P43:P82)</f>
-        <v>5.7044999999999995E-3</v>
+        <v>5.7230000000000007E-3</v>
       </c>
       <c r="Q130" s="10"/>
       <c r="R130" s="3">
         <f>MEDIAN(R43:R82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="S130" s="10"/>
       <c r="T130" s="3">
         <f>MEDIAN(T43:T82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="U130" s="10"/>
       <c r="V130" s="3">
         <f>MEDIAN(V43:V82)</f>
-        <v>5.9459999999999999E-3</v>
+        <v>5.9640000000000006E-3</v>
       </c>
       <c r="W130" s="10"/>
       <c r="X130" s="3">
         <f>MEDIAN(X43:X82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="Y130" s="10"/>
       <c r="Z130" s="3">
         <f>MEDIAN(Z43:Z82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="AA130" s="10"/>
       <c r="AB130" s="3">
         <f>MEDIAN(AB43:AB82)</f>
-        <v>5.9459999999999999E-3</v>
+        <v>5.9640000000000006E-3</v>
       </c>
       <c r="AC130" s="10"/>
       <c r="AD130" s="3">
         <f>MEDIAN(AD43:AD82)</f>
-        <v>4.3024999999999999E-3</v>
+        <v>4.3239999999999997E-3</v>
       </c>
       <c r="AE130" s="10"/>
     </row>
@@ -18068,77 +18068,77 @@
       </c>
       <c r="B131" s="5">
         <f>AVERAGE(B83:B122)</f>
-        <v>8.8985499999999999E-3</v>
+        <v>8.9021249999999968E-3</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="5">
         <f>AVERAGE(D83:D122)</f>
-        <v>2.4635675000000003E-2</v>
+        <v>2.4631924999999999E-2</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="5">
         <f>AVERAGE(F83:F122)</f>
-        <v>8.8985499999999999E-3</v>
+        <v>8.9021249999999968E-3</v>
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="5">
         <f>AVERAGE(H83:H122)</f>
-        <v>8.9283000000000001E-3</v>
+        <v>8.932724999999999E-3</v>
       </c>
       <c r="I131" s="13"/>
       <c r="J131" s="5">
         <f>AVERAGE(J83:J122)</f>
-        <v>2.4585925000000002E-2</v>
+        <v>2.4582074999999995E-2</v>
       </c>
       <c r="K131" s="13"/>
       <c r="L131" s="5">
         <f>AVERAGE(L83:L122)</f>
-        <v>8.9283000000000001E-3</v>
+        <v>8.932724999999999E-3</v>
       </c>
       <c r="M131" s="13"/>
       <c r="N131" s="5">
         <f>AVERAGE(N83:N122)</f>
-        <v>6.1861000000000008E-3</v>
+        <v>6.1973000000000011E-3</v>
       </c>
       <c r="O131" s="13"/>
       <c r="P131" s="5">
         <f>AVERAGE(P83:P122)</f>
-        <v>2.4217325000000005E-2</v>
+        <v>2.4217724999999999E-2</v>
       </c>
       <c r="Q131" s="13"/>
       <c r="R131" s="5">
         <f>AVERAGE(R83:R122)</f>
-        <v>9.3313249999999997E-3</v>
+        <v>9.2571500000000004E-3</v>
       </c>
       <c r="S131" s="13"/>
       <c r="T131" s="5">
         <f>AVERAGE(T83:T122)</f>
-        <v>8.8815250000000012E-3</v>
+        <v>8.884050000000001E-3</v>
       </c>
       <c r="U131" s="13"/>
       <c r="V131" s="5">
         <f>AVERAGE(V83:V122)</f>
-        <v>2.4293975000000002E-2</v>
+        <v>2.4291825E-2</v>
       </c>
       <c r="W131" s="13"/>
       <c r="X131" s="5">
         <f>AVERAGE(X83:X122)</f>
-        <v>8.8815250000000012E-3</v>
+        <v>8.884050000000001E-3</v>
       </c>
       <c r="Y131" s="13"/>
       <c r="Z131" s="5">
         <f>AVERAGE(Z83:Z122)</f>
-        <v>8.8815250000000012E-3</v>
+        <v>8.884050000000001E-3</v>
       </c>
       <c r="AA131" s="13"/>
       <c r="AB131" s="5">
         <f>AVERAGE(AB83:AB122)</f>
-        <v>2.4293975000000002E-2</v>
+        <v>2.4291825E-2</v>
       </c>
       <c r="AC131" s="13"/>
       <c r="AD131" s="5">
         <f>AVERAGE(AD83:AD122)</f>
-        <v>8.8815250000000012E-3</v>
+        <v>8.884050000000001E-3</v>
       </c>
       <c r="AE131" s="13"/>
     </row>
@@ -18148,37 +18148,37 @@
       </c>
       <c r="B132" s="3">
         <f>MEDIAN(B83:B122)</f>
-        <v>4.4200000000000003E-3</v>
+        <v>4.4259999999999994E-3</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="3">
         <f>MEDIAN(D83:D122)</f>
-        <v>7.0625000000000002E-3</v>
+        <v>7.064E-3</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="3">
         <f>MEDIAN(F83:F122)</f>
-        <v>4.4200000000000003E-3</v>
+        <v>4.4259999999999994E-3</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="3">
         <f>MEDIAN(H83:H122)</f>
-        <v>4.4200000000000003E-3</v>
+        <v>4.4259999999999994E-3</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="3">
         <f>MEDIAN(J83:J122)</f>
-        <v>7.0815000000000001E-3</v>
+        <v>7.0825000000000003E-3</v>
       </c>
       <c r="K132" s="10"/>
       <c r="L132" s="3">
         <f>MEDIAN(L83:L122)</f>
-        <v>4.4200000000000003E-3</v>
+        <v>4.4259999999999994E-3</v>
       </c>
       <c r="M132" s="10"/>
       <c r="N132" s="3">
         <f>MEDIAN(N83:N122)</f>
-        <v>4.091E-3</v>
+        <v>4.0980000000000001E-3</v>
       </c>
       <c r="O132" s="10"/>
       <c r="P132" s="3">
@@ -18188,37 +18188,37 @@
       <c r="Q132" s="10"/>
       <c r="R132" s="3">
         <f>MEDIAN(R83:R122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="S132" s="10"/>
       <c r="T132" s="3">
         <f>MEDIAN(T83:T122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="U132" s="10"/>
       <c r="V132" s="3">
         <f>MEDIAN(V83:V122)</f>
-        <v>7.0524999999999997E-3</v>
+        <v>7.0540000000000004E-3</v>
       </c>
       <c r="W132" s="10"/>
       <c r="X132" s="3">
         <f>MEDIAN(X83:X122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="Y132" s="10"/>
       <c r="Z132" s="3">
         <f>MEDIAN(Z83:Z122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AA132" s="10"/>
       <c r="AB132" s="3">
         <f>MEDIAN(AB83:AB122)</f>
-        <v>7.0524999999999997E-3</v>
+        <v>7.0540000000000004E-3</v>
       </c>
       <c r="AC132" s="10"/>
       <c r="AD132" s="3">
         <f>MEDIAN(AD83:AD122)</f>
-        <v>4.4029999999999998E-3</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="AE132" s="10"/>
     </row>
@@ -18228,77 +18228,77 @@
       </c>
       <c r="B133" s="5">
         <f>AVERAGE(B3:B42)</f>
-        <v>8.8461750000000013E-3</v>
+        <v>8.8480750000000004E-3</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="5">
         <f>AVERAGE(D3:D42)</f>
-        <v>2.407215E-2</v>
+        <v>2.4063000000000001E-2</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="5">
         <f>AVERAGE(F3:F42)</f>
-        <v>8.8461750000000013E-3</v>
+        <v>8.8480750000000004E-3</v>
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="5">
         <f>AVERAGE(H3:H42)</f>
-        <v>8.8593249999999995E-3</v>
+        <v>8.8616499999999987E-3</v>
       </c>
       <c r="I133" s="13"/>
       <c r="J133" s="5">
         <f>AVERAGE(J3:J42)</f>
-        <v>2.4051224999999999E-2</v>
+        <v>2.4042050000000002E-2</v>
       </c>
       <c r="K133" s="13"/>
       <c r="L133" s="5">
         <f>AVERAGE(L3:L42)</f>
-        <v>8.8593249999999995E-3</v>
+        <v>8.8616499999999987E-3</v>
       </c>
       <c r="M133" s="13"/>
       <c r="N133" s="5">
         <f>AVERAGE(N3:N42)</f>
-        <v>6.2188250000000007E-3</v>
+        <v>6.2265000000000011E-3</v>
       </c>
       <c r="O133" s="13"/>
       <c r="P133" s="5">
         <f>AVERAGE(P3:P42)</f>
-        <v>2.3892224999999993E-2</v>
+        <v>2.3887374999999995E-2</v>
       </c>
       <c r="Q133" s="13"/>
       <c r="R133" s="5">
         <f>AVERAGE(R3:R42)</f>
-        <v>9.0065000000000006E-3</v>
+        <v>8.9919000000000006E-3</v>
       </c>
       <c r="S133" s="13"/>
       <c r="T133" s="5">
         <f>AVERAGE(T3:T42)</f>
-        <v>8.8279250000000004E-3</v>
+        <v>8.8309500000000006E-3</v>
       </c>
       <c r="U133" s="13"/>
       <c r="V133" s="5">
         <f>AVERAGE(V3:V42)</f>
-        <v>2.3914574999999997E-2</v>
+        <v>2.3907499999999991E-2</v>
       </c>
       <c r="W133" s="13"/>
       <c r="X133" s="5">
         <f>AVERAGE(X3:X42)</f>
-        <v>8.8279250000000004E-3</v>
+        <v>8.8309500000000006E-3</v>
       </c>
       <c r="Y133" s="13"/>
       <c r="Z133" s="5">
         <f>AVERAGE(Z3:Z42)</f>
-        <v>8.8279250000000004E-3</v>
+        <v>8.8309500000000006E-3</v>
       </c>
       <c r="AA133" s="13"/>
       <c r="AB133" s="5">
         <f>AVERAGE(AB3:AB42)</f>
-        <v>2.3914574999999997E-2</v>
+        <v>2.3907499999999991E-2</v>
       </c>
       <c r="AC133" s="13"/>
       <c r="AD133" s="5">
         <f>AVERAGE(AD3:AD42)</f>
-        <v>8.8279250000000004E-3</v>
+        <v>8.8309500000000006E-3</v>
       </c>
       <c r="AE133" s="13"/>
     </row>
@@ -18338,7 +18338,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="3">
         <f>MEDIAN(N3:N42)</f>
-        <v>5.7835000000000004E-3</v>
+        <v>5.7850000000000002E-3</v>
       </c>
       <c r="O134" s="10"/>
       <c r="P134" s="3">
@@ -18348,12 +18348,12 @@
       <c r="Q134" s="10"/>
       <c r="R134" s="3">
         <f>MEDIAN(R3:R42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="S134" s="10"/>
       <c r="T134" s="3">
         <f>MEDIAN(T3:T42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="U134" s="10"/>
       <c r="V134" s="3">
@@ -18363,12 +18363,12 @@
       <c r="W134" s="10"/>
       <c r="X134" s="3">
         <f>MEDIAN(X3:X42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="Y134" s="10"/>
       <c r="Z134" s="3">
         <f>MEDIAN(Z3:Z42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AA134" s="10"/>
       <c r="AB134" s="3">
@@ -18378,7 +18378,7 @@
       <c r="AC134" s="10"/>
       <c r="AD134" s="3">
         <f>MEDIAN(AD3:AD42)</f>
-        <v>5.8954999999999997E-3</v>
+        <v>5.8969999999999995E-3</v>
       </c>
       <c r="AE134" s="10"/>
     </row>
